--- a/Jose C/Supuestos_financieros/Limpieza base de datis/IPC_historico.xlsx
+++ b/Jose C/Supuestos_financieros/Limpieza base de datis/IPC_historico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseandres/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseandres/Desktop/Pensiones/Pensions/Jose C/Supuestos_financieros/Limpieza base de datis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC0FE1-C20B-C544-BAEA-AFAA23671F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D2F5D4EE-460F-7A47-9D84-6266952CA39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="-25420" windowWidth="24580" windowHeight="18460" xr2:uid="{4A0D42CB-CF37-413A-84A5-7E19EAE3FB97}"/>
+    <workbookView xWindow="2280" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{E81FEF23-55F3-4E4C-B6E1-8A03DA793609}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DataExported" localSheetId="0">Hoja1!$A$1:$E$355</definedName>
+    <definedName name="DataExported" localSheetId="0">Hoja1!$A$1:$E$362</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -26,14 +26,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{6ECCA52E-79C7-42CD-858B-C9058C183D1E}" name="Connection" type="4" refreshedVersion="1" background="1" refreshOnLoad="1" saveData="1">
-    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://gee.bccr.fi.cr/indicadoreseconomicos/Cuadros/frmVerCatCuadro.aspx?CodCuadro=2732&amp;Idioma=1&amp;FecInicial=1995/01/31&amp;FecFinal=2024/05/31&amp;Filtro=0&amp;Exportar=True&amp;Excel=True"/>
+  <connection id="1" xr16:uid="{3C7810AA-78E0-4241-8463-AE3DFD9E973A}" name="Conexión" type="4" refreshedVersion="1" background="1" refreshOnLoad="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://gee.bccr.fi.cr/indicadoreseconomicos/Cuadros/frmVerCatCuadro.aspx?CodCuadro=2732&amp;Idioma=1&amp;FecInicial=1995/01/31&amp;FecFinal=2024/12/31&amp;Filtro=0&amp;Exportar=True&amp;Excel=True"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>Nivel</t>
   </si>
@@ -1097,7 +1097,37 @@
     <t>Mayo/2024</t>
   </si>
   <si>
+    <t>Junio/2024</t>
+  </si>
+  <si>
+    <t>Julio/2024</t>
+  </si>
+  <si>
+    <t>Agosto/2024</t>
+  </si>
+  <si>
+    <t>Septiembre/2024</t>
+  </si>
+  <si>
+    <t>Octubre/2024</t>
+  </si>
+  <si>
+    <t>Noviembre/2024</t>
+  </si>
+  <si>
+    <t>Diciembre/2024</t>
+  </si>
+  <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>Variacion_mensual</t>
+  </si>
+  <si>
+    <t>Variacion_interanual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variación_acumulada </t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1140,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1148,28 +1178,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1177,7 +1207,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1185,14 +1215,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1200,14 +1230,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1215,7 +1245,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1223,14 +1253,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1585,8 +1615,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1646,7 +1676,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DataExported" refreshOnLoad="1" connectionId="1" xr16:uid="{EB7D5CA2-138B-4C3E-A0E8-C443D7931202}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DataExported" refreshOnLoad="1" connectionId="1" xr16:uid="{A0C626C4-8317-5140-A22C-45F2649DC8CA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1965,3915 +1995,6158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAB6BF2-9907-4965-87FC-4BE565129D3B}">
-  <dimension ref="A1:E354"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5BCE98-D847-C54E-B264-36791A0ED45F}">
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>14.66337128</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="2">
+        <v>4.1800082500000002</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23.788920780000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.1800081899999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>14.88049051</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="2">
+        <v>1.4806910799999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>24.132482150000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.7225923400000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>15.00356055</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="2">
+        <v>0.82705633999999995</v>
+      </c>
+      <c r="D4" s="2">
+        <v>23.552867200000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.5969777399999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>15.08861488</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="2">
+        <v>0.56689429999999996</v>
+      </c>
+      <c r="D5" s="2">
+        <v>23.059495699999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.2012698999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>15.220586389999999</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="2">
+        <v>0.87464297000000002</v>
+      </c>
+      <c r="D6" s="2">
+        <v>22.470021939999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.1388982700000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>15.447868059999999</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="2">
+        <v>1.4932517300000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>22.305146100000002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9.7536842499999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>15.70886883</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8" s="2">
+        <v>1.6895585099999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23.237743550000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11.608036970000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>15.8833675</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9" s="2">
+        <v>1.1108290000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22.355119240000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12.847811419999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>16.178096709999998</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="2">
+        <v>1.8555839000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>22.014556819999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14.941797230000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>16.66052268</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="C11" s="2">
+        <v>2.9819698699999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>23.869392439999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>18.369326959999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>17.054970749999999</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C12" s="2">
+        <v>2.3675611999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>24.928040169999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>21.17179324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>17.25145689</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" s="2">
+        <v>1.1520755</v>
+      </c>
+      <c r="D13" s="2">
+        <v>22.567783819999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>22.567783779999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>17.469939839999999</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="C14" s="2">
+        <v>1.26646086</v>
+      </c>
+      <c r="D14" s="2">
+        <v>19.139995209999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.2664608500000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>17.648837870000001</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="C15" s="2">
+        <v>1.0240334600000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18.603871680000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.3034633200000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>17.74708094</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="C16" s="2">
+        <v>0.55665461000000005</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18.28579543</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.87294026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>17.881985360000002</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="C17" s="2">
+        <v>0.76014990999999998</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18.513100789999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.6549288099999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>18.181113929999999</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="C18" s="2">
+        <v>1.6727928400000001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>19.45081132</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.3888610400000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>18.42892595</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="C19" s="2">
+        <v>1.3630189100000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>19.297535929999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6.8253311700000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>18.64447599</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="C20" s="2">
+        <v>1.1696288800000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18.68757828</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8.0747910899999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>18.82337403</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="C21" s="2">
+        <v>0.95952302</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18.509969819999998</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9.1117935499999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>18.994930449999998</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="C22" s="2">
+        <v>0.91140100000000002</v>
+      </c>
+      <c r="D22" s="2">
+        <v>17.41140377</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10.106239560000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>19.241276020000001</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="C23" s="2">
+        <v>1.29690167</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15.490230349999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>11.534209219999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>19.4377715</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="C24" s="2">
+        <v>1.0212185499999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>13.97129778</v>
+      </c>
+      <c r="E24" s="2">
+        <v>12.673217259999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>19.647455730000001</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="C25" s="2">
+        <v>1.0787462400000001</v>
+      </c>
+      <c r="D25" s="2">
+        <v>13.88867535</v>
+      </c>
+      <c r="E25" s="2">
+        <v>13.888675320000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>20.052159639999999</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="C26" s="2">
+        <v>2.05982859</v>
+      </c>
+      <c r="D26" s="2">
+        <v>14.78093127</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.05982859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>20.178265329999999</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="C27" s="2">
+        <v>0.62888831999999995</v>
+      </c>
+      <c r="D27" s="2">
+        <v>14.33197743</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.70167095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>20.398224070000001</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="C28" s="2">
+        <v>1.09007755</v>
+      </c>
+      <c r="D28" s="2">
+        <v>14.93847433</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.8211988200000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>20.67095647</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="C29" s="2">
+        <v>1.33703993</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15.596540620000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5.2093296999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>20.776531810000002</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="C30" s="2">
+        <v>0.51074240000000004</v>
+      </c>
+      <c r="D30" s="2">
+        <v>14.275351280000001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5.7466783599999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>20.93929885</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="C31" s="2">
+        <v>0.78341775999999996</v>
+      </c>
+      <c r="D31" s="2">
+        <v>13.62191647</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6.5751166200000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>21.119654000000001</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="C32" s="2">
+        <v>0.86132372999999995</v>
+      </c>
+      <c r="D32" s="2">
+        <v>13.27566412</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7.4930733700000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>21.35426794</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="C33" s="2">
+        <v>1.1108796599999999</v>
+      </c>
+      <c r="D33" s="2">
+        <v>13.44548488</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8.6871920599999992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>21.26922295</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="C34" s="2">
+        <v>-0.39825758</v>
+      </c>
+      <c r="D34" s="2">
+        <v>11.973155179999999</v>
+      </c>
+      <c r="E34" s="2">
+        <v>8.2543371099999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>21.305884299999999</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="C35" s="2">
+        <v>0.17236807000000001</v>
+      </c>
+      <c r="D35" s="2">
+        <v>10.730100630000001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>8.4409330100000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>21.66367103</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="C36" s="2">
+        <v>1.6792859899999999</v>
+      </c>
+      <c r="D36" s="2">
+        <v>11.45141319</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10.26196638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>21.848425540000001</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="C37" s="2">
+        <v>0.85283103999999998</v>
+      </c>
+      <c r="D37" s="2">
+        <v>11.202314640000001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>11.202314640000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>22.19594708</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="C38" s="2">
+        <v>1.5906022099999999</v>
+      </c>
+      <c r="D38" s="2">
+        <v>10.69105512</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.5906022500000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>22.420295849999999</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="C39" s="2">
+        <v>1.0107645700000001</v>
+      </c>
+      <c r="D39" s="2">
+        <v>11.111116259999999</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.6174440400000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>22.65637624</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="C40" s="2">
+        <v>1.0529762499999999</v>
+      </c>
+      <c r="D40" s="2">
+        <v>11.070337110000001</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3.6979813699999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="12">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>22.838207180000001</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="C41" s="2">
+        <v>0.80255968</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10.484520699999999</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4.5302195599999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>23.011230059999999</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="C42" s="2">
+        <v>0.75760273</v>
+      </c>
+      <c r="D42" s="2">
+        <v>10.75587721</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5.3221433400000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>23.195993909999999</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="C43" s="2">
+        <v>0.80292905000000003</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10.77731913</v>
+      </c>
+      <c r="E43" s="2">
+        <v>6.1678054199999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>23.59043264</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="C44" s="2">
+        <v>1.7004605699999999</v>
+      </c>
+      <c r="D44" s="2">
+        <v>11.69895416</v>
+      </c>
+      <c r="E44" s="2">
+        <v>7.9731471000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>24.06699279</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="C45" s="2">
+        <v>2.0201416299999999</v>
+      </c>
+      <c r="D45" s="2">
+        <v>12.70343173</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10.15435759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>23.973149079999999</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="C46" s="2">
+        <v>-0.38992703000000001</v>
+      </c>
+      <c r="D46" s="2">
+        <v>12.712858089999999</v>
+      </c>
+      <c r="E46" s="2">
+        <v>9.7248359799999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>24.047928890000001</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="C47" s="2">
+        <v>0.31193153000000001</v>
+      </c>
+      <c r="D47" s="2">
+        <v>12.86989337</v>
+      </c>
+      <c r="E47" s="2">
+        <v>10.067102330000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>24.364664250000001</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="C48" s="2">
+        <v>1.3171003699999999</v>
+      </c>
+      <c r="D48" s="2">
+        <v>12.467846359999999</v>
+      </c>
+      <c r="E48" s="2">
+        <v>11.516796530000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="13">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>24.547952299999999</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="C49" s="2">
+        <v>0.75226996000000002</v>
+      </c>
+      <c r="D49" s="2">
+        <v>12.355703869999999</v>
+      </c>
+      <c r="E49" s="2">
+        <v>12.355703910000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>24.98931756</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="C50" s="2">
+        <v>1.7979718</v>
+      </c>
+      <c r="D50" s="2">
+        <v>12.585047489999999</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.7979717900000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="13">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>25.171148500000001</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="C51" s="2">
+        <v>0.72763467999999998</v>
+      </c>
+      <c r="D51" s="2">
+        <v>12.269475249999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2.5386891399999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="13">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>25.077304789999999</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="C52" s="2">
+        <v>-0.37282251999999999</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10.685418200000001</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2.1564018200000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="13">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>25.108090990000001</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="C53" s="2">
+        <v>0.12276519</v>
+      </c>
+      <c r="D53" s="2">
+        <v>9.9389754700000008</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.2818142799999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="13">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>25.311918729999999</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="C54" s="2">
+        <v>0.81180101999999998</v>
+      </c>
+      <c r="D54" s="2">
+        <v>9.9981124999999995</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3.1121391300000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>25.66383965</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="C55" s="2">
+        <v>1.3903368</v>
+      </c>
+      <c r="D55" s="2">
+        <v>10.639103240000001</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4.5457451100000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="13">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>25.728354280000001</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="C56" s="2">
+        <v>0.25138338999999998</v>
+      </c>
+      <c r="D56" s="2">
+        <v>9.0626639699999991</v>
+      </c>
+      <c r="E56" s="2">
+        <v>4.80855575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="13">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>25.880856139999999</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="C57" s="2">
+        <v>0.59273849999999995</v>
+      </c>
+      <c r="D57" s="2">
+        <v>7.5367262000000004</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5.4297964199999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>26.050946110000002</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="C58" s="2">
+        <v>0.6572038</v>
+      </c>
+      <c r="D58" s="2">
+        <v>8.6671843699999993</v>
+      </c>
+      <c r="E58" s="2">
+        <v>6.1226850400000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="13">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>26.433662550000001</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="C59" s="2">
+        <v>1.46910764</v>
+      </c>
+      <c r="D59" s="2">
+        <v>9.9207448199999995</v>
+      </c>
+      <c r="E59" s="2">
+        <v>7.68174153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="13">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>26.68147458</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="C60" s="2">
+        <v>0.93748655000000003</v>
+      </c>
+      <c r="D60" s="2">
+        <v>9.5088949599999992</v>
+      </c>
+      <c r="E60" s="2">
+        <v>8.6912433500000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="13">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>27.030462579999998</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="C61" s="2">
+        <v>1.3079786799999999</v>
+      </c>
+      <c r="D61" s="2">
+        <v>10.11290168</v>
+      </c>
+      <c r="E61" s="2">
+        <v>10.11290165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="13">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>27.51142209</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="C62" s="2">
+        <v>1.7793240100000001</v>
+      </c>
+      <c r="D62" s="2">
+        <v>10.09273072</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1.7793240100000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="13">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>27.910269530000001</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="C63" s="2">
+        <v>1.44975217</v>
+      </c>
+      <c r="D63" s="2">
+        <v>10.88198669</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3.25487196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="13">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>28.099423399999999</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="C64" s="2">
+        <v>0.67772140000000003</v>
+      </c>
+      <c r="D64" s="2">
+        <v>12.05120979</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3.9546523200000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="13">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>28.00118033</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="C65" s="2">
+        <v>-0.34962663999999999</v>
+      </c>
+      <c r="D65" s="2">
+        <v>11.52253806</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3.5911991699999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="13">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>27.979183519999999</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="C66" s="2">
+        <v>-7.8556719999999997E-2</v>
+      </c>
+      <c r="D66" s="2">
+        <v>10.53758436</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3.5098213199999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="13">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>28.357500600000002</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="C67" s="2">
+        <v>1.3521376700000001</v>
+      </c>
+      <c r="D67" s="2">
+        <v>10.49593898</v>
+      </c>
+      <c r="E67" s="2">
+        <v>4.9094166100000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="13">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>28.73141832</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="C68" s="2">
+        <v>1.3185849000000001</v>
+      </c>
+      <c r="D68" s="2">
+        <v>11.67219639</v>
+      </c>
+      <c r="E68" s="2">
+        <v>6.2927363300000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="13">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>28.920572190000001</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="C69" s="2">
+        <v>0.65835200999999999</v>
+      </c>
+      <c r="D69" s="2">
+        <v>11.745036689999999</v>
+      </c>
+      <c r="E69" s="2">
+        <v>6.9925166900000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="13">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>29.03054689</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="C70" s="2">
+        <v>0.38026461</v>
+      </c>
+      <c r="D70" s="2">
+        <v>11.437591429999999</v>
+      </c>
+      <c r="E70" s="2">
+        <v>7.3993713699999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="13">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>29.21384428</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="C71" s="2">
+        <v>0.63139489000000004</v>
+      </c>
+      <c r="D71" s="2">
+        <v>10.51758047</v>
+      </c>
+      <c r="E71" s="2">
+        <v>8.0774855300000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="13">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>29.455790489999998</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="C72" s="2">
+        <v>0.82819025000000002</v>
+      </c>
+      <c r="D72" s="2">
+        <v>10.39791074</v>
+      </c>
+      <c r="E72" s="2">
+        <v>8.9725727299999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="13">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>29.80037913</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="C73" s="2">
+        <v>1.1698502500000001</v>
+      </c>
+      <c r="D73" s="2">
+        <v>10.24738863</v>
+      </c>
+      <c r="E73" s="2">
+        <v>10.24738865</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="13">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>30.214451539999999</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="C74" s="2">
+        <v>1.3894870500000001</v>
+      </c>
+      <c r="D74" s="2">
+        <v>9.8251171500000005</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1.38948703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="13">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>30.562981860000001</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="C75" s="2">
+        <v>1.15352192</v>
+      </c>
+      <c r="D75" s="2">
+        <v>9.5044310700000008</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2.5590369800000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="13">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>31.085282289999999</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="C76" s="2">
+        <v>1.7089315199999999</v>
+      </c>
+      <c r="D76" s="2">
+        <v>10.62605039</v>
+      </c>
+      <c r="E76" s="2">
+        <v>4.3117007000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="13">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>31.47529364</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="C77" s="2">
+        <v>1.25464954</v>
+      </c>
+      <c r="D77" s="2">
+        <v>12.40702452</v>
+      </c>
+      <c r="E77" s="2">
+        <v>5.6204469699999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="13">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>31.69070357</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="C78" s="2">
+        <v>0.68437782000000003</v>
+      </c>
+      <c r="D78" s="2">
+        <v>13.26529077</v>
+      </c>
+      <c r="E78" s="2">
+        <v>6.3432899000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="13">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>31.77884959</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="C79" s="2">
+        <v>0.27814472000000001</v>
+      </c>
+      <c r="D79" s="2">
+        <v>12.06505834</v>
+      </c>
+      <c r="E79" s="2">
+        <v>6.6390781499999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="13">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>31.972169310000002</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="C80" s="2">
+        <v>0.60832825000000001</v>
+      </c>
+      <c r="D80" s="2">
+        <v>11.27946749</v>
+      </c>
+      <c r="E80" s="2">
+        <v>7.2877937900000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>32.22640758</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="C81" s="2">
+        <v>0.79518617000000003</v>
+      </c>
+      <c r="D81" s="2">
+        <v>11.430739920000001</v>
+      </c>
+      <c r="E81" s="2">
+        <v>8.1409314899999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>32.422286589999999</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="C82" s="2">
+        <v>0.60782143</v>
+      </c>
+      <c r="D82" s="2">
+        <v>11.68334759</v>
+      </c>
+      <c r="E82" s="2">
+        <v>8.7982352400000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="13">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>32.419381710000003</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="C83" s="2">
+        <v>-8.9595200000000003E-3</v>
+      </c>
+      <c r="D83" s="2">
+        <v>10.972665559999999</v>
+      </c>
+      <c r="E83" s="2">
+        <v>8.7884874199999992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="13">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>32.707656649999997</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="C84" s="2">
+        <v>0.88920555000000001</v>
+      </c>
+      <c r="D84" s="2">
+        <v>11.039819700000001</v>
+      </c>
+      <c r="E84" s="2">
+        <v>9.7558407000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="13">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>33.065321949999998</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="C85" s="2">
+        <v>1.0935216299999999</v>
+      </c>
+      <c r="D85" s="2">
+        <v>10.95604457</v>
+      </c>
+      <c r="E85" s="2">
+        <v>10.95604456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>33.435456780000003</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="C86" s="2">
+        <v>1.11940489</v>
+      </c>
+      <c r="D86" s="2">
+        <v>10.66047893</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1.11940488</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>33.585184519999999</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="C87" s="2">
+        <v>0.44781125999999999</v>
+      </c>
+      <c r="D87" s="2">
+        <v>9.8884417599999992</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1.5722289700000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>33.847661090000003</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="C88" s="2">
+        <v>0.78152487000000004</v>
+      </c>
+      <c r="D88" s="2">
+        <v>8.8864523500000008</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2.3660411899999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>33.906664839999998</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="C89" s="2">
+        <v>0.17432149999999999</v>
+      </c>
+      <c r="D89" s="2">
+        <v>7.72469743</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2.5444872100000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>34.119328670000002</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="C90" s="2">
+        <v>0.62720361999999996</v>
+      </c>
+      <c r="D90" s="2">
+        <v>7.6635253399999996</v>
+      </c>
+      <c r="E90" s="2">
+        <v>3.1876499599999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>34.336541320000002</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="C91" s="2">
+        <v>0.63662638999999999</v>
+      </c>
+      <c r="D91" s="2">
+        <v>8.0484088099999997</v>
+      </c>
+      <c r="E91" s="2">
+        <v>3.8445697499999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>34.840104770000003</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="C92" s="2">
+        <v>1.46655263</v>
+      </c>
+      <c r="D92" s="2">
+        <v>8.9700996899999996</v>
+      </c>
+      <c r="E92" s="2">
+        <v>5.3675050300000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="13">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>35.253000270000001</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="C93" s="2">
+        <v>1.1851155499999999</v>
+      </c>
+      <c r="D93" s="2">
+        <v>9.3916539799999992</v>
+      </c>
+      <c r="E93" s="2">
+        <v>6.61623172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="13">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>35.393041949999997</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="C94" s="2">
+        <v>0.39724755</v>
+      </c>
+      <c r="D94" s="2">
+        <v>9.1626953899999997</v>
+      </c>
+      <c r="E94" s="2">
+        <v>7.03976208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="13">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>35.625927900000001</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="C95" s="2">
+        <v>0.65799925000000004</v>
+      </c>
+      <c r="D95" s="2">
+        <v>9.8908307999999998</v>
+      </c>
+      <c r="E95" s="2">
+        <v>7.7440829200000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>35.9939331</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="C96" s="2">
+        <v>1.0329701499999999</v>
+      </c>
+      <c r="D96" s="2">
+        <v>10.047422490000001</v>
+      </c>
+      <c r="E96" s="2">
+        <v>8.8570471299999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="13">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>36.267020440000003</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="C97" s="2">
+        <v>0.75870380999999998</v>
+      </c>
+      <c r="D97" s="2">
+        <v>9.6829496899999992</v>
+      </c>
+      <c r="E97" s="2">
+        <v>9.6829496899999992</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="13">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>36.501961299999998</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="C98" s="2">
+        <v>0.64780855000000004</v>
+      </c>
+      <c r="D98" s="2">
+        <v>9.1714150599999993</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0.64780853999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="13">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>36.798670680000001</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="C99" s="2">
+        <v>0.81285872999999997</v>
+      </c>
+      <c r="D99" s="2">
+        <v>9.5681658600000006</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1.4659330699999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="13">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="2">
         <v>37.036899390000002</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="C100" s="2">
+        <v>0.64738401000000001</v>
+      </c>
+      <c r="D100" s="2">
+        <v>9.4223299300000001</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2.12280728</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="13">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B101" s="2">
         <v>37.393462509999999</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="C101" s="2">
+        <v>0.96272400000000002</v>
+      </c>
+      <c r="D101" s="2">
+        <v>10.283517079999999</v>
+      </c>
+      <c r="E101" s="2">
+        <v>3.1059680599999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="13">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>37.589705799999997</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="C102" s="2">
+        <v>0.52480640999999995</v>
+      </c>
+      <c r="D102" s="2">
+        <v>10.17129371</v>
+      </c>
+      <c r="E102" s="2">
+        <v>3.64707479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="13">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="2">
         <v>37.841562250000003</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="C103" s="2">
+        <v>0.67001442</v>
+      </c>
+      <c r="D103" s="2">
+        <v>10.20784504</v>
+      </c>
+      <c r="E103" s="2">
+        <v>4.3415251399999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="13">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>38.145164899999997</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="C104" s="2">
+        <v>0.80229945999999996</v>
+      </c>
+      <c r="D104" s="2">
+        <v>9.4863667899999999</v>
+      </c>
+      <c r="E104" s="2">
+        <v>5.1786566499999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="13">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B105" s="2">
         <v>38.30342984</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="C105" s="2">
+        <v>0.41490170999999998</v>
+      </c>
+      <c r="D105" s="2">
+        <v>8.65296442</v>
+      </c>
+      <c r="E105" s="2">
+        <v>5.6150446699999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="13">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B106" s="2">
         <v>38.353485419999998</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="C106" s="2">
+        <v>0.13068172</v>
+      </c>
+      <c r="D106" s="2">
+        <v>8.3644787399999991</v>
+      </c>
+      <c r="E106" s="2">
+        <v>5.7530642299999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="13">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="2">
         <v>38.801015390000003</v>
       </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="C107" s="2">
+        <v>1.16685606</v>
+      </c>
+      <c r="D107" s="2">
+        <v>8.9122941600000001</v>
+      </c>
+      <c r="E107" s="2">
+        <v>6.9870502700000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="13">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="2">
         <v>39.352075130000003</v>
       </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="C108" s="2">
+        <v>1.42021989</v>
+      </c>
+      <c r="D108" s="2">
+        <v>9.3297445999999997</v>
+      </c>
+      <c r="E108" s="2">
+        <v>8.5065016500000006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="13">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="2">
         <v>39.845803070000002</v>
       </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="C109" s="2">
+        <v>1.2546427099999999</v>
+      </c>
+      <c r="D109" s="2">
+        <v>9.8678705499999992</v>
+      </c>
+      <c r="E109" s="2">
+        <v>9.8678705499999992</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="13">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="2">
         <v>40.524145400000002</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="C110" s="2">
+        <v>1.7024185199999999</v>
+      </c>
+      <c r="D110" s="2">
+        <v>11.01909036</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1.7024185300000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="13">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="2">
         <v>41.047940310000001</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="C111" s="2">
+        <v>1.2925501699999999</v>
+      </c>
+      <c r="D111" s="2">
+        <v>11.54734547</v>
+      </c>
+      <c r="E111" s="2">
+        <v>3.01697332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="13">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B112" s="2">
         <v>41.237439780000003</v>
       </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="C112" s="2">
+        <v>0.46165402999999999</v>
+      </c>
+      <c r="D112" s="2">
+        <v>11.3415012</v>
+      </c>
+      <c r="E112" s="2">
+        <v>3.4925553200000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="13">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="2">
         <v>41.614206340000003</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="C113" s="2">
+        <v>0.91365167999999997</v>
+      </c>
+      <c r="D113" s="2">
+        <v>11.287384339999999</v>
+      </c>
+      <c r="E113" s="2">
+        <v>4.4381167899999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="13">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>41.8932529</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="C114" s="2">
+        <v>0.67055600999999998</v>
+      </c>
+      <c r="D114" s="2">
+        <v>11.44873845</v>
+      </c>
+      <c r="E114" s="2">
+        <v>5.1384328500000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="13">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>42.339914210000003</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="C115" s="2">
+        <v>1.0661891299999999</v>
+      </c>
+      <c r="D115" s="2">
+        <v>11.887331530000001</v>
+      </c>
+      <c r="E115" s="2">
+        <v>6.2594073799999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="13">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>42.888937730000002</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="C116" s="2">
+        <v>1.29670438</v>
+      </c>
+      <c r="D116" s="2">
+        <v>12.436105189999999</v>
+      </c>
+      <c r="E116" s="2">
+        <v>7.6372777699999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="13">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>43.303421110000002</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="C117" s="2">
+        <v>0.96641093</v>
+      </c>
+      <c r="D117" s="2">
+        <v>13.053638510000001</v>
+      </c>
+      <c r="E117" s="2">
+        <v>8.6774961899999994</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="13">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>43.639678050000001</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="C118" s="2">
+        <v>0.77651356999999999</v>
+      </c>
+      <c r="D118" s="2">
+        <v>13.78282201</v>
+      </c>
+      <c r="E118" s="2">
+        <v>9.5213917000000006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="13">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>43.967229670000002</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="C119" s="2">
+        <v>0.75058212000000002</v>
+      </c>
+      <c r="D119" s="2">
+        <v>13.31463682</v>
+      </c>
+      <c r="E119" s="2">
+        <v>10.34343969</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="13">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>44.58240241</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="C120" s="2">
+        <v>1.39916193</v>
+      </c>
+      <c r="D120" s="2">
+        <v>13.29110921</v>
+      </c>
+      <c r="E120" s="2">
+        <v>11.887323070000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="13">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>45.077139109999997</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="C121" s="2">
+        <v>1.1097129699999999</v>
+      </c>
+      <c r="D121" s="2">
+        <v>13.128951199999999</v>
+      </c>
+      <c r="E121" s="2">
+        <v>13.128951219999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="13">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>45.960915759999999</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="C122" s="2">
+        <v>1.96058727</v>
+      </c>
+      <c r="D122" s="2">
+        <v>13.416125879999999</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1.9605872600000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="13">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="2">
         <v>46.463507800000002</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="C123" s="2">
+        <v>1.0935205100000001</v>
+      </c>
+      <c r="D123" s="2">
+        <v>13.19327462</v>
+      </c>
+      <c r="E123" s="2">
+        <v>3.0755471999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="13">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>46.851053270000001</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="C124" s="2">
+        <v>0.83408568999999999</v>
+      </c>
+      <c r="D124" s="2">
+        <v>13.612904970000001</v>
+      </c>
+      <c r="E124" s="2">
+        <v>3.9352855799999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="13">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B125" s="2">
         <v>47.299984309999999</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="C125" s="2">
+        <v>0.95820907</v>
+      </c>
+      <c r="D125" s="2">
+        <v>13.663069589999999</v>
+      </c>
+      <c r="E125" s="2">
+        <v>4.9312028999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="13">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>47.948736029999999</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="C126" s="2">
+        <v>1.37156857</v>
+      </c>
+      <c r="D126" s="2">
+        <v>14.45455464</v>
+      </c>
+      <c r="E126" s="2">
+        <v>6.3704063199999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="13">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>48.16774204</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="C127" s="2">
+        <v>0.45675032999999998</v>
+      </c>
+      <c r="D127" s="2">
+        <v>13.76438271</v>
+      </c>
+      <c r="E127" s="2">
+        <v>6.8562535100000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="13">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B128" s="2">
         <v>48.785474069999999</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="C128" s="2">
+        <v>1.2824600100000001</v>
+      </c>
+      <c r="D128" s="2">
+        <v>13.74838514</v>
+      </c>
+      <c r="E128" s="2">
+        <v>8.2266422099999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="13">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="2">
         <v>49.395042519999997</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="C129" s="2">
+        <v>1.2494875999999999</v>
+      </c>
+      <c r="D129" s="2">
+        <v>14.06729827</v>
+      </c>
+      <c r="E129" s="2">
+        <v>9.5789206900000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="13">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B130" s="2">
         <v>49.479797949999998</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="C130" s="2">
+        <v>0.17158692</v>
+      </c>
+      <c r="D130" s="2">
+        <v>13.38259163</v>
+      </c>
+      <c r="E130" s="2">
+        <v>9.7669437800000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="13">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B131" s="2">
         <v>50.094260810000002</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="C131" s="2">
+        <v>1.2418459399999999</v>
+      </c>
+      <c r="D131" s="2">
+        <v>13.93544962</v>
+      </c>
+      <c r="E131" s="2">
+        <v>11.13008011</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="13">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="2">
         <v>50.907937220000001</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="C132" s="2">
+        <v>1.6242906800000001</v>
+      </c>
+      <c r="D132" s="2">
+        <v>14.18841172</v>
+      </c>
+      <c r="E132" s="2">
+        <v>12.93515566</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="13">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B133" s="2">
         <v>51.42172849</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="C133" s="2">
+        <v>1.0092557200000001</v>
+      </c>
+      <c r="D133" s="2">
+        <v>14.07496018</v>
+      </c>
+      <c r="E133" s="2">
+        <v>14.074960170000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="13">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B134" s="2">
         <v>52.025636609999999</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="C134" s="2">
+        <v>1.17442205</v>
+      </c>
+      <c r="D134" s="2">
+        <v>13.19538732</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1.1744220700000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="13">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="2">
         <v>52.486317970000002</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="C135" s="2">
+        <v>0.88548914000000001</v>
+      </c>
+      <c r="D135" s="2">
+        <v>12.96245259</v>
+      </c>
+      <c r="E135" s="2">
+        <v>2.0703105599999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="13">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B136" s="2">
         <v>52.574660139999999</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="C136" s="2">
+        <v>0.16831466</v>
+      </c>
+      <c r="D136" s="2">
+        <v>12.21660234</v>
+      </c>
+      <c r="E136" s="2">
+        <v>2.2421098700000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="13">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B137" s="2">
         <v>52.80051271</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="C137" s="2">
+        <v>0.42958446</v>
+      </c>
+      <c r="D137" s="2">
+        <v>11.62902796</v>
+      </c>
+      <c r="E137" s="2">
+        <v>2.6813261000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="13">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="2">
         <v>53.637381519999998</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="C138" s="2">
+        <v>1.58496342</v>
+      </c>
+      <c r="D138" s="2">
+        <v>11.86401553</v>
+      </c>
+      <c r="E138" s="2">
+        <v>4.30878754</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="13">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B139" s="2">
         <v>54.150107970000001</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="C139" s="2">
+        <v>0.95591252999999998</v>
+      </c>
+      <c r="D139" s="2">
+        <v>12.41985959</v>
+      </c>
+      <c r="E139" s="2">
+        <v>5.3058883100000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="13">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>54.652419799999997</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="C140" s="2">
+        <v>0.92762849000000003</v>
+      </c>
+      <c r="D140" s="2">
+        <v>12.02600947</v>
+      </c>
+      <c r="E140" s="2">
+        <v>6.2827357299999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="13">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B141" s="2">
         <v>55.131815160000002</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="C141" s="2">
+        <v>0.87717133000000003</v>
+      </c>
+      <c r="D141" s="2">
+        <v>11.6140656</v>
+      </c>
+      <c r="E141" s="2">
+        <v>7.2150174199999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="13">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B142" s="2">
         <v>55.041153940000001</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="C142" s="2">
+        <v>-0.16444447000000001</v>
+      </c>
+      <c r="D142" s="2">
+        <v>11.239649760000001</v>
+      </c>
+      <c r="E142" s="2">
+        <v>7.03870825</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="13">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>55.14646656</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="C143" s="2">
+        <v>0.19133432</v>
+      </c>
+      <c r="D143" s="2">
+        <v>10.085398339999999</v>
+      </c>
+      <c r="E143" s="2">
+        <v>7.2435100600000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="13">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B144" s="2">
         <v>55.705896559999999</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="C144" s="2">
+        <v>1.0144439599999999</v>
+      </c>
+      <c r="D144" s="2">
+        <v>9.4247765700000006</v>
+      </c>
+      <c r="E144" s="2">
+        <v>8.3314353600000004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="13">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B145" s="2">
         <v>56.272708129999998</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="C145" s="2">
+        <v>1.0175073100000001</v>
+      </c>
+      <c r="D145" s="2">
+        <v>9.43371563</v>
+      </c>
+      <c r="E145" s="2">
+        <v>9.4337156400000008</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="13">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>56.808539469999999</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="C146" s="2">
+        <v>0.95220464000000005</v>
+      </c>
+      <c r="D146" s="2">
+        <v>9.1933576800000001</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0.95220464999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="13">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B147" s="2">
         <v>57.009262939999999</v>
       </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="C147" s="2">
+        <v>0.35333326999999998</v>
+      </c>
+      <c r="D147" s="2">
+        <v>8.6173790500000003</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1.30890237</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="13">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B148" s="2">
         <v>57.421263770000003</v>
       </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="C148" s="2">
+        <v>0.72269103000000001</v>
+      </c>
+      <c r="D148" s="2">
+        <v>9.2185163299999999</v>
+      </c>
+      <c r="E148" s="2">
+        <v>2.0410527200000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="13">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B149" s="2">
         <v>57.952142039999998</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="C149" s="2">
+        <v>0.92453253999999996</v>
+      </c>
+      <c r="D149" s="2">
+        <v>9.7567789900000008</v>
+      </c>
+      <c r="E149" s="2">
+        <v>2.9844554599999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="13">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B150" s="2">
         <v>58.555518749999997</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="C150" s="2">
+        <v>1.04116378</v>
+      </c>
+      <c r="D150" s="2">
+        <v>9.1692343899999997</v>
+      </c>
+      <c r="E150" s="2">
+        <v>4.05669229</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="13">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B151" s="2">
         <v>58.888652980000003</v>
       </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="C151" s="2">
+        <v>0.56892030000000005</v>
+      </c>
+      <c r="D151" s="2">
+        <v>8.7507581900000009</v>
+      </c>
+      <c r="E151" s="2">
+        <v>4.64869194</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="13">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B152" s="2">
         <v>59.43582481</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="C152" s="2">
+        <v>0.92916343000000001</v>
+      </c>
+      <c r="D152" s="2">
+        <v>8.7524121099999999</v>
+      </c>
+      <c r="E152" s="2">
+        <v>5.6210493100000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="13">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B153" s="2">
         <v>59.852595860000001</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="C153" s="2">
+        <v>0.70121186000000002</v>
+      </c>
+      <c r="D153" s="2">
+        <v>8.5627159000000006</v>
+      </c>
+      <c r="E153" s="2">
+        <v>6.3616766399999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="13">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B154" s="2">
         <v>60.231581130000002</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="C154" s="2">
+        <v>0.63319771999999996</v>
+      </c>
+      <c r="D154" s="2">
+        <v>9.4300842500000002</v>
+      </c>
+      <c r="E154" s="2">
+        <v>7.0351563400000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="13">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B155" s="2">
         <v>60.575075079999998</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="C155" s="2">
+        <v>0.57028878000000005</v>
+      </c>
+      <c r="D155" s="2">
+        <v>9.8439824999999992</v>
+      </c>
+      <c r="E155" s="2">
+        <v>7.6455658399999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="13">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>61.3269868</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="C156" s="2">
+        <v>1.2412889600000001</v>
+      </c>
+      <c r="D156" s="2">
+        <v>10.090655720000001</v>
+      </c>
+      <c r="E156" s="2">
+        <v>8.9817583600000006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="13">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B157" s="2">
         <v>62.353269279999999</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="C157" s="2">
+        <v>1.6734598199999999</v>
+      </c>
+      <c r="D157" s="2">
+        <v>10.8055243</v>
+      </c>
+      <c r="E157" s="2">
+        <v>10.805524289999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="13">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B158" s="2">
         <v>62.809045070000003</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="C158" s="2">
+        <v>0.73095732999999996</v>
+      </c>
+      <c r="D158" s="2">
+        <v>10.5626824</v>
+      </c>
+      <c r="E158" s="2">
+        <v>0.73095732000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="13">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B159" s="2">
         <v>63.507873689999997</v>
       </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="C159" s="2">
+        <v>1.1126241800000001</v>
+      </c>
+      <c r="D159" s="2">
+        <v>11.399219029999999</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1.8517143</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="13">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B160" s="2">
         <v>63.758005519999998</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="C160" s="2">
+        <v>0.39385956</v>
+      </c>
+      <c r="D160" s="2">
+        <v>11.035531669999999</v>
+      </c>
+      <c r="E160" s="2">
+        <v>2.25286703</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="13">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B161" s="2">
         <v>64.295715909999998</v>
       </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="C161" s="2">
+        <v>0.84336137</v>
+      </c>
+      <c r="D161" s="2">
+        <v>10.946228469999999</v>
+      </c>
+      <c r="E161" s="2">
+        <v>3.1152281999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="13">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B162" s="2">
         <v>65.521139360000006</v>
       </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="C162" s="2">
+        <v>1.9059177300000001</v>
+      </c>
+      <c r="D162" s="2">
+        <v>11.89575425</v>
+      </c>
+      <c r="E162" s="2">
+        <v>5.0805196199999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="13">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B163" s="2">
         <v>66.436981349999996</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="C163" s="2">
+        <v>1.3977809299999999</v>
+      </c>
+      <c r="D163" s="2">
+        <v>12.817967449999999</v>
+      </c>
+      <c r="E163" s="2">
+        <v>6.5493150900000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="13">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B164" s="2">
         <v>67.857763879999993</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="C164" s="2">
+        <v>2.13854167</v>
+      </c>
+      <c r="D164" s="2">
+        <v>14.16980263</v>
+      </c>
+      <c r="E164" s="2">
+        <v>8.8279165800000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="13">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B165" s="2">
         <v>69.071477709999996</v>
       </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="C165" s="2">
+        <v>1.78861454</v>
+      </c>
+      <c r="D165" s="2">
+        <v>15.40264331</v>
+      </c>
+      <c r="E165" s="2">
+        <v>10.774428520000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="13">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B166" s="2">
         <v>69.728186629999996</v>
       </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="C166" s="2">
+        <v>0.95076715000000001</v>
+      </c>
+      <c r="D166" s="2">
+        <v>15.766820859999999</v>
+      </c>
+      <c r="E166" s="2">
+        <v>11.827635409999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="13">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B167" s="2">
         <v>70.451131739999994</v>
       </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="C167" s="2">
+        <v>1.0368046900000001</v>
+      </c>
+      <c r="D167" s="2">
+        <v>16.303829</v>
+      </c>
+      <c r="E167" s="2">
+        <v>12.98706958</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="13">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>71.321735910000001</v>
       </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="C168" s="2">
+        <v>1.23575612</v>
+      </c>
+      <c r="D168" s="2">
+        <v>16.297472989999999</v>
+      </c>
+      <c r="E168" s="2">
+        <v>14.383314199999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="13">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B169" s="2">
         <v>71.02182818</v>
       </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="C169" s="2">
+        <v>-0.42049976</v>
+      </c>
+      <c r="D169" s="2">
+        <v>13.90233263</v>
+      </c>
+      <c r="E169" s="2">
+        <v>13.90233263</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="13">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B170" s="2">
         <v>71.28887512</v>
       </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="C170" s="2">
+        <v>0.37600685</v>
+      </c>
+      <c r="D170" s="2">
+        <v>13.500969550000001</v>
+      </c>
+      <c r="E170" s="2">
+        <v>0.37600685</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="13">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B171" s="2">
         <v>71.604114300000006</v>
       </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="C171" s="2">
+        <v>0.44219967999999998</v>
+      </c>
+      <c r="D171" s="2">
+        <v>12.748404470000001</v>
+      </c>
+      <c r="E171" s="2">
+        <v>0.81986924000000005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="13">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B172" s="2">
         <v>71.614215680000001</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="C172" s="2">
+        <v>1.410726E-2</v>
+      </c>
+      <c r="D172" s="2">
+        <v>12.32191957</v>
+      </c>
+      <c r="E172" s="2">
+        <v>0.83409215999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="13">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B173" s="2">
         <v>71.850932169999993</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="C173" s="2">
+        <v>0.330544</v>
+      </c>
+      <c r="D173" s="2">
+        <v>11.75073044</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1.1673932</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="13">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B174" s="2">
         <v>71.761195209999997</v>
       </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="C174" s="2">
+        <v>-0.12489324</v>
+      </c>
+      <c r="D174" s="2">
+        <v>9.5237291499999994</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1.0410419500000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="13">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B175" s="2">
         <v>71.882203399999995</v>
       </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="C175" s="2">
+        <v>0.16862621999999999</v>
+      </c>
+      <c r="D175" s="2">
+        <v>8.19607083</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1.21142364</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="13">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B176" s="2">
         <v>72.541793190000007</v>
       </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="C176" s="2">
+        <v>0.91759818000000004</v>
+      </c>
+      <c r="D176" s="2">
+        <v>6.90271686</v>
+      </c>
+      <c r="E176" s="2">
+        <v>2.14013783</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="13">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B177" s="2">
         <v>73.016603439999997</v>
       </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="C177" s="2">
+        <v>0.65453338000000005</v>
+      </c>
+      <c r="D177" s="2">
+        <v>5.7116567700000003</v>
+      </c>
+      <c r="E177" s="2">
+        <v>2.8086791199999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="13">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B178" s="2">
         <v>73.098725770000001</v>
       </c>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="C178" s="2">
+        <v>0.11247076</v>
+      </c>
+      <c r="D178" s="2">
+        <v>4.83382589</v>
+      </c>
+      <c r="E178" s="2">
+        <v>2.9243088300000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="13">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B179" s="2">
         <v>73.269280249999994</v>
       </c>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="C179" s="2">
+        <v>0.23332073</v>
+      </c>
+      <c r="D179" s="2">
+        <v>4.0001465400000003</v>
+      </c>
+      <c r="E179" s="2">
+        <v>3.1644525699999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="13">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B180" s="2">
         <v>73.152242920000006</v>
       </c>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="C180" s="2">
+        <v>-0.15973588</v>
+      </c>
+      <c r="D180" s="2">
+        <v>2.56654859</v>
+      </c>
+      <c r="E180" s="2">
+        <v>2.9996619299999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="13">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B181" s="2">
         <v>73.896110910000004</v>
       </c>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="C181" s="2">
+        <v>1.01687653</v>
+      </c>
+      <c r="D181" s="2">
+        <v>4.0470413199999999</v>
+      </c>
+      <c r="E181" s="2">
+        <v>4.0470413199999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="13">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B182" s="2">
         <v>75.097876040000003</v>
       </c>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="C182" s="2">
+        <v>1.6262900899999999</v>
+      </c>
+      <c r="D182" s="2">
+        <v>5.3430509500000003</v>
+      </c>
+      <c r="E182" s="2">
+        <v>1.62629008</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="13">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B183" s="2">
         <v>75.613550529999998</v>
       </c>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="C183" s="2">
+        <v>0.68666987000000002</v>
+      </c>
+      <c r="D183" s="2">
+        <v>5.5994495100000004</v>
+      </c>
+      <c r="E183" s="2">
+        <v>2.3241271999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="13">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>75.79764849</v>
       </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="C184" s="2">
+        <v>0.24347218000000001</v>
+      </c>
+      <c r="D184" s="2">
+        <v>5.8416234400000002</v>
+      </c>
+      <c r="E184" s="2">
+        <v>2.5732579800000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="13">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B185" s="2">
         <v>75.842994149999996</v>
       </c>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="C185" s="2">
+        <v>5.9824629999999997E-2</v>
+      </c>
+      <c r="D185" s="2">
+        <v>5.5560336699999997</v>
+      </c>
+      <c r="E185" s="2">
+        <v>2.6346220499999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="13">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B186" s="2">
         <v>76.234059889999997</v>
       </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="C186" s="2">
+        <v>0.51562540000000001</v>
+      </c>
+      <c r="D186" s="2">
+        <v>6.2329851999999999</v>
+      </c>
+      <c r="E186" s="2">
+        <v>3.1638322400000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="13">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B187" s="2">
         <v>76.419339239999999</v>
       </c>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="C187" s="2">
+        <v>0.24304012</v>
+      </c>
+      <c r="D187" s="2">
+        <v>6.3119042299999997</v>
+      </c>
+      <c r="E187" s="2">
+        <v>3.41456173</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="13">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B188" s="2">
         <v>76.663671199999996</v>
       </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="C188" s="2">
+        <v>0.31972529999999999</v>
+      </c>
+      <c r="D188" s="2">
+        <v>5.6820735000000004</v>
+      </c>
+      <c r="E188" s="2">
+        <v>3.7452042400000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="13">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B189" s="2">
         <v>76.818025219999996</v>
       </c>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="C189" s="2">
+        <v>0.2013392</v>
+      </c>
+      <c r="D189" s="2">
+        <v>5.2062429699999999</v>
+      </c>
+      <c r="E189" s="2">
+        <v>3.9540839999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="13">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B190" s="2">
         <v>76.754197410000003</v>
       </c>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="C190" s="2">
+        <v>-8.3089629999999998E-2</v>
+      </c>
+      <c r="D190" s="2">
+        <v>5.0007323699999997</v>
+      </c>
+      <c r="E190" s="2">
+        <v>3.8677089499999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="13">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B191" s="2">
         <v>77.118047290000007</v>
       </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="C191" s="2">
+        <v>0.47404558000000002</v>
+      </c>
+      <c r="D191" s="2">
+        <v>5.2529068499999996</v>
+      </c>
+      <c r="E191" s="2">
+        <v>4.3600892399999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="13">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B192" s="2">
         <v>77.623940660000002</v>
       </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="C192" s="2">
+        <v>0.65599867999999995</v>
+      </c>
+      <c r="D192" s="2">
+        <v>6.1128648400000003</v>
+      </c>
+      <c r="E192" s="2">
+        <v>5.0446900399999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="13">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B193" s="2">
         <v>78.200053749999995</v>
       </c>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="C193" s="2">
+        <v>0.74218479999999998</v>
+      </c>
+      <c r="D193" s="2">
+        <v>5.8243157700000001</v>
+      </c>
+      <c r="E193" s="2">
+        <v>5.8243157600000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="13">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B194" s="2">
         <v>78.729062110000001</v>
       </c>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="C194" s="2">
+        <v>0.67648081000000004</v>
+      </c>
+      <c r="D194" s="2">
+        <v>4.8352713300000003</v>
+      </c>
+      <c r="E194" s="2">
+        <v>0.67648081999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="13">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>79.072367319999998</v>
       </c>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="C195" s="2">
+        <v>0.43605906</v>
+      </c>
+      <c r="D195" s="2">
+        <v>4.5743345800000004</v>
+      </c>
+      <c r="E195" s="2">
+        <v>1.1154897399999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="13">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B196" s="2">
         <v>79.271517930000002</v>
       </c>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="C196" s="2">
+        <v>0.25185867000000001</v>
+      </c>
+      <c r="D196" s="2">
+        <v>4.5830833899999996</v>
+      </c>
+      <c r="E196" s="2">
+        <v>1.3701578599999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="13">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B197" s="2">
         <v>79.393888630000006</v>
       </c>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="C197" s="2">
+        <v>0.15436906</v>
+      </c>
+      <c r="D197" s="2">
+        <v>4.6819017599999997</v>
+      </c>
+      <c r="E197" s="2">
+        <v>1.5266420300000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="13">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B198" s="2">
         <v>79.927706240000006</v>
       </c>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="C198" s="2">
+        <v>0.67236611999999996</v>
+      </c>
+      <c r="D198" s="2">
+        <v>4.84513924</v>
+      </c>
+      <c r="E198" s="2">
+        <v>2.2092727600000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="13">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B199" s="2">
         <v>80.374776389999994</v>
       </c>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="C199" s="2">
+        <v>0.55934315000000001</v>
+      </c>
+      <c r="D199" s="2">
+        <v>5.1759635599999996</v>
+      </c>
+      <c r="E199" s="2">
+        <v>2.7809733300000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="13">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B200" s="2">
         <v>80.645480280000001</v>
       </c>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="C200" s="2">
+        <v>0.33680204000000002</v>
+      </c>
+      <c r="D200" s="2">
+        <v>5.1938669500000003</v>
+      </c>
+      <c r="E200" s="2">
+        <v>3.1271417499999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="13">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B201" s="2">
         <v>80.852365129999995</v>
       </c>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="C201" s="2">
+        <v>0.25653619999999999</v>
+      </c>
+      <c r="D201" s="2">
+        <v>5.2518141399999996</v>
+      </c>
+      <c r="E201" s="2">
+        <v>3.3917001999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="13">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B202" s="2">
         <v>80.726004110000005</v>
       </c>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="C202" s="2">
+        <v>-0.15628611000000001</v>
+      </c>
+      <c r="D202" s="2">
+        <v>5.17470944</v>
+      </c>
+      <c r="E202" s="2">
+        <v>3.2301133399999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="13">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B203" s="2">
         <v>80.917132429999995</v>
       </c>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="C203" s="2">
+        <v>0.23676177000000001</v>
+      </c>
+      <c r="D203" s="2">
+        <v>4.9263243499999998</v>
+      </c>
+      <c r="E203" s="2">
+        <v>3.47452278</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="13">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>81.160047789999993</v>
       </c>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="C204" s="2">
+        <v>0.30020263000000003</v>
+      </c>
+      <c r="D204" s="2">
+        <v>4.5554336700000002</v>
+      </c>
+      <c r="E204" s="2">
+        <v>3.7851560200000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="13">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B205" s="2">
         <v>81.903411739999996</v>
       </c>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="C205" s="2">
+        <v>0.9159235</v>
+      </c>
+      <c r="D205" s="2">
+        <v>4.7357486499999997</v>
+      </c>
+      <c r="E205" s="2">
+        <v>4.7357486499999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="13">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B206" s="2">
         <v>82.046589749999995</v>
       </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="C206" s="2">
+        <v>0.17481324000000001</v>
+      </c>
+      <c r="D206" s="2">
+        <v>4.2138538800000003</v>
+      </c>
+      <c r="E206" s="2">
+        <v>0.17481324000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="13">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B207" s="2">
         <v>82.277431019999995</v>
       </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="C207" s="2">
+        <v>0.28135389</v>
+      </c>
+      <c r="D207" s="2">
+        <v>4.0533296400000003</v>
+      </c>
+      <c r="E207" s="2">
+        <v>0.45665897999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="13">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B208" s="2">
         <v>82.607311319999994</v>
       </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="C208" s="2">
+        <v>0.40093656</v>
+      </c>
+      <c r="D208" s="2">
+        <v>4.2080604399999997</v>
+      </c>
+      <c r="E208" s="2">
+        <v>0.85942644000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="13">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B209" s="2">
         <v>83.13127394</v>
       </c>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="C209" s="2">
+        <v>0.63428116999999995</v>
+      </c>
+      <c r="D209" s="2">
+        <v>4.7073967200000002</v>
+      </c>
+      <c r="E209" s="2">
+        <v>1.4991587900000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="13">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B210" s="2">
         <v>83.952303479999998</v>
       </c>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="C210" s="2">
+        <v>0.98763016999999997</v>
+      </c>
+      <c r="D210" s="2">
+        <v>5.0352968100000002</v>
+      </c>
+      <c r="E210" s="2">
+        <v>2.5015951099999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="13">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B211" s="2">
         <v>84.084000020000005</v>
       </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="C211" s="2">
+        <v>0.15687066999999999</v>
+      </c>
+      <c r="D211" s="2">
+        <v>4.6149100499999998</v>
+      </c>
+      <c r="E211" s="2">
+        <v>2.66239004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="13">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B212" s="2">
         <v>83.829884539999995</v>
       </c>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="C212" s="2">
+        <v>-0.30221620999999999</v>
+      </c>
+      <c r="D212" s="2">
+        <v>3.9486456599999999</v>
+      </c>
+      <c r="E212" s="2">
+        <v>2.3521276599999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="13">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B213" s="2">
         <v>84.273122869999995</v>
       </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="C213" s="2">
+        <v>0.52873546999999999</v>
+      </c>
+      <c r="D213" s="2">
+        <v>4.2308691100000004</v>
+      </c>
+      <c r="E213" s="2">
+        <v>2.8932996499999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="13">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B214" s="2">
         <v>84.331473919999993</v>
       </c>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="C214" s="2">
+        <v>6.9240399999999994E-2</v>
+      </c>
+      <c r="D214" s="2">
+        <v>4.4663053100000001</v>
+      </c>
+      <c r="E214" s="2">
+        <v>2.9645433899999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="13">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B215" s="2">
         <v>84.707309629999997</v>
       </c>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="C215" s="2">
+        <v>0.44566482000000002</v>
+      </c>
+      <c r="D215" s="2">
+        <v>4.6840231299999999</v>
+      </c>
+      <c r="E215" s="2">
+        <v>3.4234201299999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="13">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B216" s="2">
         <v>85.393653189999995</v>
       </c>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="C216" s="2">
+        <v>0.81025305000000003</v>
+      </c>
+      <c r="D216" s="2">
+        <v>5.2163663199999997</v>
+      </c>
+      <c r="E216" s="2">
+        <v>4.26141155</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="13">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B217" s="2">
         <v>85.630451460000003</v>
       </c>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="C217" s="2">
+        <v>0.27730196000000001</v>
+      </c>
+      <c r="D217" s="2">
+        <v>4.5505304899999999</v>
+      </c>
+      <c r="E217" s="2">
+        <v>4.5505304899999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="13">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B218" s="2">
         <v>86.753358640000002</v>
       </c>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="C218" s="2">
+        <v>1.3113409600000001</v>
+      </c>
+      <c r="D218" s="2">
+        <v>5.7367026499999998</v>
+      </c>
+      <c r="E218" s="2">
+        <v>1.3113409499999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="13">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B219" s="2">
         <v>87.638451779999997</v>
       </c>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="C219" s="2">
+        <v>1.02024078</v>
+      </c>
+      <c r="D219" s="2">
+        <v>6.5157853100000001</v>
+      </c>
+      <c r="E219" s="2">
+        <v>2.3449605600000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="13">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B220" s="2">
         <v>87.733819879999999</v>
       </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="C220" s="2">
+        <v>0.10881993</v>
+      </c>
+      <c r="D220" s="2">
+        <v>6.2058775199999996</v>
+      </c>
+      <c r="E220" s="2">
+        <v>2.4563322799999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="13">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B221" s="2">
         <v>88.374587210000001</v>
       </c>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="C221" s="2">
+        <v>0.73035384999999997</v>
+      </c>
+      <c r="D221" s="2">
+        <v>6.3072692400000001</v>
+      </c>
+      <c r="E221" s="2">
+        <v>3.20462604</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="13">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B222" s="2">
         <v>88.388374150000004</v>
       </c>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="C222" s="2">
+        <v>1.5600569999999999E-2</v>
+      </c>
+      <c r="D222" s="2">
+        <v>5.2840368700000004</v>
+      </c>
+      <c r="E222" s="2">
+        <v>3.2207265500000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="13">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B223" s="2">
         <v>88.404154869999999</v>
       </c>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="C223" s="2">
+        <v>1.7853839999999999E-2</v>
+      </c>
+      <c r="D223" s="2">
+        <v>5.1379035799999997</v>
+      </c>
+      <c r="E223" s="2">
+        <v>3.2391554199999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="13">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B224" s="2">
         <v>88.703885040000003</v>
       </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="C224" s="2">
+        <v>0.33904533999999997</v>
+      </c>
+      <c r="D224" s="2">
+        <v>5.8141562799999997</v>
+      </c>
+      <c r="E224" s="2">
+        <v>3.58918297</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="13">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B225" s="2">
         <v>88.745497950000001</v>
       </c>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="C225" s="2">
+        <v>4.6912160000000001E-2</v>
+      </c>
+      <c r="D225" s="2">
+        <v>5.3070005299999998</v>
+      </c>
+      <c r="E225" s="2">
+        <v>3.6377788899999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="13">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B226" s="2">
         <v>88.861624539999994</v>
       </c>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="C226" s="2">
+        <v>0.13085350000000001</v>
+      </c>
+      <c r="D226" s="2">
+        <v>5.3718385399999997</v>
+      </c>
+      <c r="E226" s="2">
+        <v>3.7733925500000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="13">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B227" s="2">
         <v>88.185527230000005</v>
       </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="C227" s="2">
+        <v>-0.76084284000000002</v>
+      </c>
+      <c r="D227" s="2">
+        <v>4.1061599199999996</v>
+      </c>
+      <c r="E227" s="2">
+        <v>2.98384012</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="13">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B228" s="2">
         <v>88.333877130000005</v>
       </c>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="C228" s="2">
+        <v>0.16822477</v>
+      </c>
+      <c r="D228" s="2">
+        <v>3.4431410699999998</v>
+      </c>
+      <c r="E228" s="2">
+        <v>3.1570844500000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="13">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B229" s="2">
         <v>88.781258750000006</v>
       </c>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="C229" s="2">
+        <v>0.50646663999999997</v>
+      </c>
+      <c r="D229" s="2">
+        <v>3.6795406700000002</v>
+      </c>
+      <c r="E229" s="2">
+        <v>3.6795406700000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="13">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B230" s="2">
         <v>89.446211590000004</v>
       </c>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="C230" s="2">
+        <v>0.74897884000000003</v>
+      </c>
+      <c r="D230" s="2">
+        <v>3.1040330799999998</v>
+      </c>
+      <c r="E230" s="2">
+        <v>0.74897884000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="13">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B231" s="2">
         <v>90.039449719999993</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="C231" s="2">
+        <v>0.66323449999999995</v>
+      </c>
+      <c r="D231" s="2">
+        <v>2.73966266</v>
+      </c>
+      <c r="E231" s="2">
+        <v>1.41718082</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="13">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B232" s="2">
         <v>90.593230700000007</v>
       </c>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="C232" s="2">
+        <v>0.61504261000000005</v>
+      </c>
+      <c r="D232" s="2">
+        <v>3.2591887900000001</v>
+      </c>
+      <c r="E232" s="2">
+        <v>2.0409396900000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="13">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B233" s="2">
         <v>91.626147029999998</v>
       </c>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="C233" s="2">
+        <v>1.14016944</v>
+      </c>
+      <c r="D233" s="2">
+        <v>3.6792927999999998</v>
+      </c>
+      <c r="E233" s="2">
+        <v>3.2043792999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="13">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B234" s="2">
         <v>92.109788839999993</v>
       </c>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="C234" s="2">
+        <v>0.52784257000000001</v>
+      </c>
+      <c r="D234" s="2">
+        <v>4.2102988400000001</v>
+      </c>
+      <c r="E234" s="2">
+        <v>3.7491359499999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="13">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B235" s="2">
         <v>92.46114068</v>
       </c>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="C235" s="2">
+        <v>0.38144897</v>
+      </c>
+      <c r="D235" s="2">
+        <v>4.5891347700000003</v>
+      </c>
+      <c r="E235" s="2">
+        <v>4.1448859599999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="13">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B236" s="2">
         <v>93.304068650000005</v>
       </c>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="C236" s="2">
+        <v>0.91165647000000005</v>
+      </c>
+      <c r="D236" s="2">
+        <v>5.1860001499999999</v>
+      </c>
+      <c r="E236" s="2">
+        <v>5.0943295500000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="13">
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B237" s="2">
         <v>93.613851499999996</v>
       </c>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="C237" s="2">
+        <v>0.33201429999999998</v>
+      </c>
+      <c r="D237" s="2">
+        <v>5.4857470700000004</v>
+      </c>
+      <c r="E237" s="2">
+        <v>5.4432577499999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="13">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B238" s="2">
         <v>93.485098399999998</v>
       </c>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="C238" s="2">
+        <v>-0.13753638000000001</v>
+      </c>
+      <c r="D238" s="2">
+        <v>5.2030039800000001</v>
+      </c>
+      <c r="E238" s="2">
+        <v>5.2982349199999996</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="13">
       <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B239" s="2">
         <v>93.214368570000005</v>
       </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="C239" s="2">
+        <v>-0.28959677</v>
+      </c>
+      <c r="D239" s="2">
+        <v>5.7025699100000002</v>
+      </c>
+      <c r="E239" s="2">
+        <v>4.9932946200000004</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="13">
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B240" s="2">
         <v>93.533382689999996</v>
       </c>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="C240" s="2">
+        <v>0.34223706999999998</v>
+      </c>
+      <c r="D240" s="2">
+        <v>5.8861964699999998</v>
+      </c>
+      <c r="E240" s="2">
+        <v>5.3526205899999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="13">
       <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B241" s="2">
         <v>93.333238370000004</v>
       </c>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="C241" s="2">
+        <v>-0.2139817</v>
+      </c>
+      <c r="D241" s="2">
+        <v>5.12718527</v>
+      </c>
+      <c r="E241" s="2">
+        <v>5.12718527</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="13">
       <c r="A242" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B242" s="2">
         <v>93.369256759999999</v>
       </c>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="C242" s="2">
+        <v>3.8591170000000001E-2</v>
+      </c>
+      <c r="D242" s="2">
+        <v>4.3859265799999996</v>
+      </c>
+      <c r="E242" s="2">
+        <v>3.8591170000000001E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="13">
       <c r="A243" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B243" s="2">
         <v>93.215227560000002</v>
       </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="C243" s="2">
+        <v>-0.16496779</v>
+      </c>
+      <c r="D243" s="2">
+        <v>3.5270960100000002</v>
+      </c>
+      <c r="E243" s="2">
+        <v>-0.12644027999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="13">
       <c r="A244" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B244" s="2">
         <v>93.352984910000004</v>
       </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="C244" s="2">
+        <v>0.14778416999999999</v>
+      </c>
+      <c r="D244" s="2">
+        <v>3.0463139300000002</v>
+      </c>
+      <c r="E244" s="2">
+        <v>2.115703E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="13">
       <c r="A245" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B245" s="2">
         <v>93.280044329999996</v>
       </c>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="C245" s="2">
+        <v>-7.8134170000000003E-2</v>
+      </c>
+      <c r="D245" s="2">
+        <v>1.80504949</v>
+      </c>
+      <c r="E245" s="2">
+        <v>-5.6993670000000003E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="13">
       <c r="A246" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B246" s="2">
         <v>93.005559509999998</v>
       </c>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="C246" s="2">
+        <v>-0.29425889</v>
+      </c>
+      <c r="D246" s="2">
+        <v>0.97250323000000005</v>
+      </c>
+      <c r="E246" s="2">
+        <v>-0.35108485</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="13">
       <c r="A247" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B247" s="2">
         <v>93.404713709999996</v>
       </c>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="C247" s="2">
+        <v>0.42917241</v>
+      </c>
+      <c r="D247" s="2">
+        <v>1.02050767</v>
+      </c>
+      <c r="E247" s="2">
+        <v>7.6580800000000004E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="13">
       <c r="A248" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B248" s="2">
         <v>93.003909340000007</v>
       </c>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="C248" s="2">
+        <v>-0.42910508000000003</v>
+      </c>
+      <c r="D248" s="2">
+        <v>-0.32170012999999997</v>
+      </c>
+      <c r="E248" s="2">
+        <v>-0.35285288999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="13">
       <c r="A249" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B249" s="2">
         <v>92.922714139999997</v>
       </c>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="C249" s="2">
+        <v>-8.7303000000000006E-2</v>
+      </c>
+      <c r="D249" s="2">
+        <v>-0.73828536</v>
+      </c>
+      <c r="E249" s="2">
+        <v>-0.43984783</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="13">
       <c r="A250" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B250" s="2">
         <v>92.677207350000003</v>
       </c>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="C250" s="2">
+        <v>-0.26420536</v>
+      </c>
+      <c r="D250" s="2">
+        <v>-0.86419232999999995</v>
+      </c>
+      <c r="E250" s="2">
+        <v>-0.70289109999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="13">
       <c r="A251" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B251" s="2">
         <v>92.416040929999994</v>
       </c>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="C251" s="2">
+        <v>-0.28180221</v>
+      </c>
+      <c r="D251" s="2">
+        <v>-0.85644268000000001</v>
+      </c>
+      <c r="E251" s="2">
+        <v>-0.98271253999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="13">
       <c r="A252" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B252" s="2">
         <v>92.407452449999994</v>
       </c>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="C252" s="2">
+        <v>-9.2932799999999992E-3</v>
+      </c>
+      <c r="D252" s="2">
+        <v>-1.2037736800000001</v>
+      </c>
+      <c r="E252" s="2">
+        <v>-0.99191448999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="13">
       <c r="A253" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B253" s="2">
         <v>92.579496559999995</v>
       </c>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="C253" s="2">
+        <v>0.18617991</v>
+      </c>
+      <c r="D253" s="2">
+        <v>-0.80758132999999999</v>
+      </c>
+      <c r="E253" s="2">
+        <v>-0.80758132999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="13">
       <c r="A254" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B254" s="2">
         <v>93.208007899999998</v>
       </c>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="C254" s="2">
+        <v>0.67888826999999996</v>
+      </c>
+      <c r="D254" s="2">
+        <v>-0.17270015999999999</v>
+      </c>
+      <c r="E254" s="2">
+        <v>0.67888826999999996</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="13">
       <c r="A255" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B255" s="2">
         <v>93.185084380000006</v>
       </c>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="C255" s="2">
+        <v>-2.4593940000000002E-2</v>
+      </c>
+      <c r="D255" s="2">
+        <v>-3.233718E-2</v>
+      </c>
+      <c r="E255" s="2">
+        <v>0.65412736999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="13">
       <c r="A256" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B256" s="2">
         <v>92.339085049999994</v>
       </c>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="C256" s="2">
+        <v>-0.90786990000000001</v>
+      </c>
+      <c r="D256" s="2">
+        <v>-1.0860926</v>
+      </c>
+      <c r="E256" s="2">
+        <v>-0.25968115000000003</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="13">
       <c r="A257" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B257" s="2">
         <v>92.423680419999997</v>
       </c>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="C257" s="2">
+        <v>9.1613829999999993E-2</v>
+      </c>
+      <c r="D257" s="2">
+        <v>-0.91805692999999999</v>
+      </c>
+      <c r="E257" s="2">
+        <v>-0.16830523</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="13">
       <c r="A258" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B258" s="2">
         <v>92.603103000000004</v>
       </c>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="C258" s="2">
+        <v>0.19413053</v>
+      </c>
+      <c r="D258" s="2">
+        <v>-0.43272306999999999</v>
+      </c>
+      <c r="E258" s="2">
+        <v>2.549856E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="13">
       <c r="A259" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B259" s="2">
         <v>92.584252059999997</v>
       </c>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="C259" s="2">
+        <v>-2.0356699999999998E-2</v>
+      </c>
+      <c r="D259" s="2">
+        <v>-0.87839427000000003</v>
+      </c>
+      <c r="E259" s="2">
+        <v>5.1366700000000003E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="13">
       <c r="A260" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B260" s="2">
         <v>93.446168139999997</v>
       </c>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="C260" s="2">
+        <v>0.93095322000000003</v>
+      </c>
+      <c r="D260" s="2">
+        <v>0.47552710999999998</v>
+      </c>
+      <c r="E260" s="2">
+        <v>0.93613771999999995</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="13">
       <c r="A261" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B261" s="2">
         <v>93.476409700000005</v>
       </c>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="C261" s="2">
+        <v>3.2362549999999997E-2</v>
+      </c>
+      <c r="D261" s="2">
+        <v>0.59586675</v>
+      </c>
+      <c r="E261" s="2">
+        <v>0.96880321999999996</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="13">
       <c r="A262" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B262" s="2">
         <v>93.034714050000005</v>
       </c>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="C262" s="2">
+        <v>-0.47252097999999998</v>
+      </c>
+      <c r="D262" s="2">
+        <v>0.38575472</v>
+      </c>
+      <c r="E262" s="2">
+        <v>0.49170443000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="13">
       <c r="A263" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B263" s="2">
         <v>92.925993559999995</v>
       </c>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="C263" s="2">
+        <v>-0.11686013000000001</v>
+      </c>
+      <c r="D263" s="2">
+        <v>0.55180099000000005</v>
+      </c>
+      <c r="E263" s="2">
+        <v>0.37426969999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="13">
       <c r="A264" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B264" s="2">
         <v>92.925278250000005</v>
       </c>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="C264" s="2">
+        <v>-7.6975999999999998E-4</v>
+      </c>
+      <c r="D264" s="2">
+        <v>0.56037234000000002</v>
+      </c>
+      <c r="E264" s="2">
+        <v>0.37349705999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="13">
       <c r="A265" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B265" s="2">
         <v>93.287906620000001</v>
       </c>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="C265" s="2">
+        <v>0.39023651999999998</v>
+      </c>
+      <c r="D265" s="2">
+        <v>0.76519108999999996</v>
+      </c>
+      <c r="E265" s="2">
+        <v>0.76519110000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="13">
       <c r="A266" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B266" s="2">
         <v>93.819186360000003</v>
       </c>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="C266" s="2">
+        <v>0.56950548000000001</v>
+      </c>
+      <c r="D266" s="2">
+        <v>0.65571453999999996</v>
+      </c>
+      <c r="E266" s="2">
+        <v>0.56950548000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="13">
       <c r="A267" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B267" s="2">
         <v>94.196576210000003</v>
       </c>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="C267" s="2">
+        <v>0.40225232</v>
+      </c>
+      <c r="D267" s="2">
+        <v>1.08546538</v>
+      </c>
+      <c r="E267" s="2">
+        <v>0.97404864000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="13">
       <c r="A268" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B268" s="2">
         <v>93.799575820000001</v>
       </c>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="C268" s="2">
+        <v>-0.42145947</v>
+      </c>
+      <c r="D268" s="2">
+        <v>1.5816604299999999</v>
+      </c>
+      <c r="E268" s="2">
+        <v>0.54848395000000005</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="13">
       <c r="A269" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B269" s="2">
         <v>93.942991539999994</v>
       </c>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="C269" s="2">
+        <v>0.15289591999999999</v>
+      </c>
+      <c r="D269" s="2">
+        <v>1.6438548100000001</v>
+      </c>
+      <c r="E269" s="2">
+        <v>0.70221847999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="13">
       <c r="A270" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B270" s="2">
         <v>94.150648970000006</v>
       </c>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="C270" s="2">
+        <v>0.22104621999999999</v>
+      </c>
+      <c r="D270" s="2">
+        <v>1.6711599500000001</v>
+      </c>
+      <c r="E270" s="2">
+        <v>0.92481692000000004</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="13">
       <c r="A271" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B271" s="2">
         <v>94.226990220000005</v>
       </c>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="C271" s="2">
+        <v>8.1084149999999994E-2</v>
+      </c>
+      <c r="D271" s="2">
+        <v>1.7743170399999999</v>
+      </c>
+      <c r="E271" s="2">
+        <v>1.0066509400000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="13">
       <c r="A272" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B272" s="2">
         <v>94.533048120000004</v>
       </c>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="C272" s="2">
+        <v>0.32480915999999999</v>
+      </c>
+      <c r="D272" s="2">
+        <v>1.1631081299999999</v>
+      </c>
+      <c r="E272" s="2">
+        <v>1.33472981</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="13">
       <c r="A273" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B273" s="2">
         <v>94.326523539999997</v>
       </c>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="C273" s="2">
+        <v>-0.21846813000000001</v>
+      </c>
+      <c r="D273" s="2">
+        <v>0.90944212000000002</v>
+      </c>
+      <c r="E273" s="2">
+        <v>1.1133457200000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="13">
       <c r="A274" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B274" s="2">
         <v>94.561600029999994</v>
       </c>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="C274" s="2">
+        <v>0.24921567999999999</v>
+      </c>
+      <c r="D274" s="2">
+        <v>1.6412002699999999</v>
+      </c>
+      <c r="E274" s="2">
+        <v>1.3653360299999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="13">
       <c r="A275" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B275" s="2">
         <v>95.086923979999995</v>
       </c>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="C275" s="2">
+        <v>0.55553622999999996</v>
+      </c>
+      <c r="D275" s="2">
+        <v>2.3254315999999999</v>
+      </c>
+      <c r="E275" s="2">
+        <v>1.9284572099999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="13">
       <c r="A276" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B276" s="2">
         <v>95.240341310000005</v>
       </c>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="C276" s="2">
+        <v>0.1613443</v>
+      </c>
+      <c r="D276" s="2">
+        <v>2.4913167899999999</v>
+      </c>
+      <c r="E276" s="2">
+        <v>2.09291296</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="13">
       <c r="A277" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B277" s="2">
         <v>95.689239909999998</v>
       </c>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="C277" s="2">
+        <v>0.47133240999999998</v>
+      </c>
+      <c r="D277" s="2">
+        <v>2.57410995</v>
+      </c>
+      <c r="E277" s="2">
+        <v>2.57410994</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="13">
       <c r="A278" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B278" s="2">
         <v>96.078188350000005</v>
       </c>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="C278" s="2">
+        <v>0.40647040000000001</v>
+      </c>
+      <c r="D278" s="2">
+        <v>2.4078251800000001</v>
+      </c>
+      <c r="E278" s="2">
+        <v>0.40647041</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="13">
       <c r="A279" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B279" s="2">
         <v>96.280664299999998</v>
       </c>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="C279" s="2">
+        <v>0.21074081</v>
+      </c>
+      <c r="D279" s="2">
+        <v>2.21248815</v>
+      </c>
+      <c r="E279" s="2">
+        <v>0.61806781</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="13">
       <c r="A280" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B280" s="2">
         <v>96.250528430000003</v>
       </c>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="C280" s="2">
+        <v>-3.1300019999999998E-2</v>
+      </c>
+      <c r="D280" s="2">
+        <v>2.6129676900000001</v>
+      </c>
+      <c r="E280" s="2">
+        <v>0.58657433999999997</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="13">
       <c r="A281" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B281" s="2">
         <v>96.174541730000001</v>
       </c>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="C281" s="2">
+        <v>-7.8946790000000003E-2</v>
+      </c>
+      <c r="D281" s="2">
+        <v>2.3754301999999998</v>
+      </c>
+      <c r="E281" s="2">
+        <v>0.50716446999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="13">
       <c r="A282" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B282" s="2">
         <v>96.067464970000003</v>
       </c>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="C282" s="2">
+        <v>-0.11133587</v>
+      </c>
+      <c r="D282" s="2">
+        <v>2.03590312</v>
+      </c>
+      <c r="E282" s="2">
+        <v>0.39526393999999998</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="13">
       <c r="A283" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B283" s="2">
         <v>96.237918199999996</v>
       </c>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="C283" s="2">
+        <v>0.17743075999999999</v>
+      </c>
+      <c r="D283" s="2">
+        <v>2.1341316099999998</v>
+      </c>
+      <c r="E283" s="2">
+        <v>0.57339602999999995</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="13">
       <c r="A284" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B284" s="2">
         <v>96.503438430000003</v>
       </c>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="C284" s="2">
+        <v>0.27589981000000002</v>
+      </c>
+      <c r="D284" s="2">
+        <v>2.0843401799999999</v>
+      </c>
+      <c r="E284" s="2">
+        <v>0.85087782999999995</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="13">
       <c r="A285" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B285" s="2">
         <v>96.439754769999993</v>
       </c>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="C285" s="2">
+        <v>-6.5991079999999994E-2</v>
+      </c>
+      <c r="D285" s="2">
+        <v>2.2403361799999999</v>
+      </c>
+      <c r="E285" s="2">
+        <v>0.78432524000000003</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="13">
       <c r="A286" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B286" s="2">
         <v>96.653068910000002</v>
       </c>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="C286" s="2">
+        <v>0.22118900999999999</v>
+      </c>
+      <c r="D286" s="2">
+        <v>2.2117528499999999</v>
+      </c>
+      <c r="E286" s="2">
+        <v>1.00724909</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="13">
       <c r="A287" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B287" s="2">
         <v>97.014241229999996</v>
       </c>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="C287" s="2">
+        <v>0.37367909999999999</v>
+      </c>
+      <c r="D287" s="2">
+        <v>2.0269004100000001</v>
+      </c>
+      <c r="E287" s="2">
+        <v>1.3846920700000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="13">
       <c r="A288" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B288" s="2">
         <v>97.423643319999996</v>
       </c>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="C288" s="2">
+        <v>0.42200205000000002</v>
+      </c>
+      <c r="D288" s="2">
+        <v>2.29241305</v>
+      </c>
+      <c r="E288" s="2">
+        <v>1.81253756</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="13">
       <c r="A289" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B289" s="2">
         <v>97.629111649999999</v>
       </c>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="C289" s="2">
+        <v>0.21090191999999999</v>
+      </c>
+      <c r="D289" s="2">
+        <v>2.0272621499999999</v>
+      </c>
+      <c r="E289" s="2">
+        <v>2.0272621599999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="13">
       <c r="A290" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B290" s="2">
         <v>97.679211870000003</v>
       </c>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="C290" s="2">
+        <v>5.1316889999999997E-2</v>
+      </c>
+      <c r="D290" s="2">
+        <v>1.6663756300000001</v>
+      </c>
+      <c r="E290" s="2">
+        <v>5.1316880000000002E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="13">
       <c r="A291" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B291" s="2">
         <v>97.759031789999995</v>
       </c>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="C291" s="2">
+        <v>8.1716380000000005E-2</v>
+      </c>
+      <c r="D291" s="2">
+        <v>1.53547704</v>
+      </c>
+      <c r="E291" s="2">
+        <v>0.1330752</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="13">
       <c r="A292" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B292" s="2">
         <v>97.617418020000002</v>
       </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="C292" s="2">
+        <v>-0.14486004</v>
+      </c>
+      <c r="D292" s="2">
+        <v>1.4201372299999999</v>
+      </c>
+      <c r="E292" s="2">
+        <v>-1.197761E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="13">
       <c r="A293" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B293" s="2">
         <v>98.165424299999998</v>
       </c>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="C293" s="2">
+        <v>0.56138166</v>
+      </c>
+      <c r="D293" s="2">
+        <v>2.07007232</v>
+      </c>
+      <c r="E293" s="2">
+        <v>0.54933679999999996</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="13">
       <c r="A294" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B294" s="2">
         <v>98.298055489999996</v>
       </c>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="C294" s="2">
+        <v>0.13510987999999999</v>
+      </c>
+      <c r="D294" s="2">
+        <v>2.32190005</v>
+      </c>
+      <c r="E294" s="2">
+        <v>0.68518889999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="13">
       <c r="A295" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B295" s="2">
         <v>98.568195189999997</v>
       </c>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="C295" s="2">
+        <v>0.27481693000000001</v>
+      </c>
+      <c r="D295" s="2">
+        <v>2.42137095</v>
+      </c>
+      <c r="E295" s="2">
+        <v>0.96188883999999997</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="13">
       <c r="A296" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B296" s="2">
         <v>99.291642809999999</v>
       </c>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="C296" s="2">
+        <v>0.73395644000000004</v>
+      </c>
+      <c r="D296" s="2">
+        <v>2.88922802</v>
+      </c>
+      <c r="E296" s="2">
+        <v>1.7029051399999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="13">
       <c r="A297" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B297" s="2">
         <v>99.193890580000001</v>
       </c>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="C297" s="2">
+        <v>-9.8449599999999998E-2</v>
+      </c>
+      <c r="D297" s="2">
+        <v>2.8558096399999999</v>
+      </c>
+      <c r="E297" s="2">
+        <v>1.60277903</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="13">
       <c r="A298" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B298" s="2">
         <v>99.097494049999995</v>
       </c>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="C298" s="2">
+        <v>-9.7179909999999994E-2</v>
+      </c>
+      <c r="D298" s="2">
+        <v>2.5290714200000002</v>
+      </c>
+      <c r="E298" s="2">
+        <v>1.50404154</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="13">
       <c r="A299" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B299" s="2">
         <v>99.024797930000005</v>
       </c>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="C299" s="2">
+        <v>-7.3358179999999995E-2</v>
+      </c>
+      <c r="D299" s="2">
+        <v>2.0724345999999998</v>
+      </c>
+      <c r="E299" s="2">
+        <v>1.4295800299999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="13">
       <c r="A300" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B300" s="2">
         <v>99.231689320000001</v>
       </c>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="C300" s="2">
+        <v>0.20892886999999999</v>
+      </c>
+      <c r="D300" s="2">
+        <v>1.8558595600000001</v>
+      </c>
+      <c r="E300" s="2">
+        <v>1.6414956999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="13">
       <c r="A301" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B301" s="2">
         <v>99.11544567</v>
       </c>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="C301" s="2">
+        <v>-0.11714368</v>
+      </c>
+      <c r="D301" s="2">
+        <v>1.52242911</v>
+      </c>
+      <c r="E301" s="2">
+        <v>1.52242911</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="13">
       <c r="A302" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B302" s="2">
         <v>99.225243599999999</v>
       </c>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="C302" s="2">
+        <v>0.11077782</v>
+      </c>
+      <c r="D302" s="2">
+        <v>1.58276434</v>
+      </c>
+      <c r="E302" s="2">
+        <v>0.11077782</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="13">
       <c r="A303" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B303" s="2">
         <v>99.508993009999998</v>
       </c>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="C303" s="2">
+        <v>0.28596494</v>
+      </c>
+      <c r="D303" s="2">
+        <v>1.79007626</v>
+      </c>
+      <c r="E303" s="2">
+        <v>0.39705953999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="13">
       <c r="A304" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B304" s="2">
         <v>99.478912460000004</v>
       </c>
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-      <c r="E304" s="2"/>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="C304" s="2">
+        <v>-3.0228979999999999E-2</v>
+      </c>
+      <c r="D304" s="2">
+        <v>1.90692858</v>
+      </c>
+      <c r="E304" s="2">
+        <v>0.36671055000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="13">
       <c r="A305" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B305" s="2">
         <v>99.040237869999999</v>
       </c>
-      <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
-      <c r="E305" s="2"/>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="C305" s="2">
+        <v>-0.44097244000000002</v>
+      </c>
+      <c r="D305" s="2">
+        <v>0.89116262000000002</v>
+      </c>
+      <c r="E305" s="2">
+        <v>-7.5878989999999993E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="13">
       <c r="A306" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B306" s="2">
         <v>98.896445700000001</v>
       </c>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="C306" s="2">
+        <v>-0.14518560999999999</v>
+      </c>
+      <c r="D306" s="2">
+        <v>0.60875080999999998</v>
+      </c>
+      <c r="E306" s="2">
+        <v>-0.22095443000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="13">
       <c r="A307" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B307" s="2">
         <v>98.875348310000007</v>
       </c>
-      <c r="C307" s="2"/>
-      <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="C307" s="2">
+        <v>-2.1332810000000001E-2</v>
+      </c>
+      <c r="D307" s="2">
+        <v>0.31161484</v>
+      </c>
+      <c r="E307" s="2">
+        <v>-0.24224011000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="13">
       <c r="A308" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B308" s="2">
         <v>99.127692339999996</v>
       </c>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2"/>
-    </row>
-    <row r="309" spans="1:5">
+      <c r="C308" s="2">
+        <v>0.25521430000000001</v>
+      </c>
+      <c r="D308" s="2">
+        <v>-0.16512010999999999</v>
+      </c>
+      <c r="E308" s="2">
+        <v>1.2355959999999999E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="13">
       <c r="A309" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B309" s="2">
         <v>99.123686579999998</v>
       </c>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-    </row>
-    <row r="310" spans="1:5">
+      <c r="C309" s="2">
+        <v>-4.0410100000000003E-3</v>
+      </c>
+      <c r="D309" s="2">
+        <v>-7.0774519999999994E-2</v>
+      </c>
+      <c r="E309" s="2">
+        <v>8.3144499999999993E-3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="13">
       <c r="A310" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B310" s="2">
         <v>99.393758809999994</v>
       </c>
-      <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
-    </row>
-    <row r="311" spans="1:5">
+      <c r="C310" s="2">
+        <v>0.27245983000000001</v>
+      </c>
+      <c r="D310" s="2">
+        <v>0.29896292000000002</v>
+      </c>
+      <c r="E310" s="2">
+        <v>0.28079693999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="13">
       <c r="A311" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B311" s="2">
         <v>99.472841919999993</v>
       </c>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-    </row>
-    <row r="312" spans="1:5">
+      <c r="C311" s="2">
+        <v>7.9565469999999999E-2</v>
+      </c>
+      <c r="D311" s="2">
+        <v>0.45245635000000001</v>
+      </c>
+      <c r="E311" s="2">
+        <v>0.36058582</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="13">
       <c r="A312" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B312" s="2">
         <v>99.474323560000002</v>
       </c>
-      <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
-      <c r="E312" s="2"/>
-    </row>
-    <row r="313" spans="1:5">
+      <c r="C312" s="2">
+        <v>1.48949E-3</v>
+      </c>
+      <c r="D312" s="2">
+        <v>0.24451286</v>
+      </c>
+      <c r="E312" s="2">
+        <v>0.36208068999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="13">
       <c r="A313" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B313" s="2">
         <v>100</v>
       </c>
-      <c r="C313" s="2"/>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-    </row>
-    <row r="314" spans="1:5">
+      <c r="C313" s="2">
+        <v>0.52845439999999999</v>
+      </c>
+      <c r="D313" s="2">
+        <v>0.89244851999999997</v>
+      </c>
+      <c r="E313" s="2">
+        <v>0.89244851999999997</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="13">
       <c r="A314" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B314" s="2">
         <v>100.17693626000001</v>
       </c>
-      <c r="C314" s="2"/>
-      <c r="D314" s="2"/>
-      <c r="E314" s="2"/>
-    </row>
-    <row r="315" spans="1:5">
+      <c r="C314" s="2">
+        <v>0.17693626000000001</v>
+      </c>
+      <c r="D314" s="2">
+        <v>0.95912352999999995</v>
+      </c>
+      <c r="E314" s="2">
+        <v>0.17693626000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="13">
       <c r="A315" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B315" s="2">
         <v>99.921244529999996</v>
       </c>
-      <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
-      <c r="E315" s="2"/>
-    </row>
-    <row r="316" spans="1:5">
+      <c r="C315" s="2">
+        <v>-0.25524012000000001</v>
+      </c>
+      <c r="D315" s="2">
+        <v>0.41428568999999998</v>
+      </c>
+      <c r="E315" s="2">
+        <v>-7.8755469999999994E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="13">
       <c r="A316" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B316" s="2">
         <v>99.949181179999997</v>
       </c>
-      <c r="C316" s="2"/>
-      <c r="D316" s="2"/>
-      <c r="E316" s="2"/>
-    </row>
-    <row r="317" spans="1:5">
+      <c r="C316" s="2">
+        <v>2.7958670000000001E-2</v>
+      </c>
+      <c r="D316" s="2">
+        <v>0.47273207</v>
+      </c>
+      <c r="E316" s="2">
+        <v>-5.0818820000000001E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="13">
       <c r="A317" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B317" s="2">
         <v>100.23846188</v>
       </c>
-      <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-    </row>
-    <row r="318" spans="1:5">
+      <c r="C317" s="2">
+        <v>0.28942778000000002</v>
+      </c>
+      <c r="D317" s="2">
+        <v>1.20983555</v>
+      </c>
+      <c r="E317" s="2">
+        <v>0.23846187999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="13">
       <c r="A318" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B318" s="2">
         <v>100.22344407</v>
       </c>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
-    </row>
-    <row r="319" spans="1:5">
+      <c r="C318" s="2">
+        <v>-1.498208E-2</v>
+      </c>
+      <c r="D318" s="2">
+        <v>1.34180593</v>
+      </c>
+      <c r="E318" s="2">
+        <v>0.22344406999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="13">
       <c r="A319" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B319" s="2">
         <v>100.76192321000001</v>
       </c>
-      <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-    </row>
-    <row r="320" spans="1:5">
+      <c r="C319" s="2">
+        <v>0.53727862000000004</v>
+      </c>
+      <c r="D319" s="2">
+        <v>1.90803363</v>
+      </c>
+      <c r="E319" s="2">
+        <v>0.76192320999999996</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="13">
       <c r="A320" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B320" s="2">
         <v>100.55491275999999</v>
       </c>
-      <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
-      <c r="E320" s="2"/>
-    </row>
-    <row r="321" spans="1:5">
+      <c r="C320" s="2">
+        <v>-0.20544512000000001</v>
+      </c>
+      <c r="D320" s="2">
+        <v>1.4397797299999999</v>
+      </c>
+      <c r="E320" s="2">
+        <v>0.55491276</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="13">
       <c r="A321" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B321" s="2">
         <v>100.83323018</v>
       </c>
-      <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
-    </row>
-    <row r="322" spans="1:5">
+      <c r="C321" s="2">
+        <v>0.27678152</v>
+      </c>
+      <c r="D321" s="2">
+        <v>1.7246570000000001</v>
+      </c>
+      <c r="E321" s="2">
+        <v>0.83323018000000004</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="13">
       <c r="A322" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B322" s="2">
         <v>101.46746807</v>
       </c>
-      <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
-    </row>
-    <row r="323" spans="1:5">
+      <c r="C322" s="2">
+        <v>0.62899689999999997</v>
+      </c>
+      <c r="D322" s="2">
+        <v>2.0863576199999998</v>
+      </c>
+      <c r="E322" s="2">
+        <v>1.46746807</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="13">
       <c r="A323" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B323" s="2">
         <v>101.96356227</v>
       </c>
-      <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
-    </row>
-    <row r="324" spans="1:5">
+      <c r="C323" s="2">
+        <v>0.48891945999999997</v>
+      </c>
+      <c r="D323" s="2">
+        <v>2.5039199700000001</v>
+      </c>
+      <c r="E323" s="2">
+        <v>1.9635622699999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="13">
       <c r="A324" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B324" s="2">
         <v>102.80237964</v>
       </c>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-    </row>
-    <row r="325" spans="1:5">
+      <c r="C324" s="2">
+        <v>0.82266384999999997</v>
+      </c>
+      <c r="D324" s="2">
+        <v>3.3456433400000001</v>
+      </c>
+      <c r="E324" s="2">
+        <v>2.8023796399999998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="13">
       <c r="A325" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B325" s="2">
         <v>103.29890791</v>
       </c>
-      <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
-    </row>
-    <row r="326" spans="1:5">
+      <c r="C325" s="2">
+        <v>0.48299297000000002</v>
+      </c>
+      <c r="D325" s="2">
+        <v>3.2989079100000001</v>
+      </c>
+      <c r="E325" s="2">
+        <v>3.2989079100000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="13">
       <c r="A326" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B326" s="2">
         <v>103.68120989000001</v>
       </c>
-      <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-    </row>
-    <row r="327" spans="1:5">
+      <c r="C326" s="2">
+        <v>0.37009294999999998</v>
+      </c>
+      <c r="D326" s="2">
+        <v>3.4980842499999998</v>
+      </c>
+      <c r="E326" s="2">
+        <v>0.37009294999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="13">
       <c r="A327" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B327" s="2">
         <v>104.81470219000001</v>
       </c>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-    </row>
-    <row r="328" spans="1:5">
+      <c r="C327" s="2">
+        <v>1.09324756</v>
+      </c>
+      <c r="D327" s="2">
+        <v>4.8973145599999999</v>
+      </c>
+      <c r="E327" s="2">
+        <v>1.4673865500000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="13">
       <c r="A328" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B328" s="2">
         <v>105.73941222000001</v>
       </c>
-      <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
-      <c r="E328" s="2"/>
-    </row>
-    <row r="329" spans="1:5">
+      <c r="C328" s="2">
+        <v>0.88223313000000003</v>
+      </c>
+      <c r="D328" s="2">
+        <v>5.7931750600000003</v>
+      </c>
+      <c r="E328" s="2">
+        <v>2.36256545</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="13">
       <c r="A329" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B329" s="2">
         <v>107.40707737</v>
       </c>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-    </row>
-    <row r="330" spans="1:5">
+      <c r="C329" s="2">
+        <v>1.5771462300000001</v>
+      </c>
+      <c r="D329" s="2">
+        <v>7.15156174</v>
+      </c>
+      <c r="E329" s="2">
+        <v>3.97697279</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="13">
       <c r="A330" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B330" s="2">
         <v>108.95706260999999</v>
       </c>
-      <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
-    </row>
-    <row r="331" spans="1:5">
+      <c r="C330" s="2">
+        <v>1.4430941399999999</v>
+      </c>
+      <c r="D330" s="2">
+        <v>8.7141472899999997</v>
+      </c>
+      <c r="E330" s="2">
+        <v>5.4774583899999998</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="13">
       <c r="A331" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B331" s="2">
         <v>110.89414488</v>
       </c>
-      <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
-    </row>
-    <row r="332" spans="1:5">
+      <c r="C331" s="2">
+        <v>1.7778400299999999</v>
+      </c>
+      <c r="D331" s="2">
+        <v>10.055605679999999</v>
+      </c>
+      <c r="E331" s="2">
+        <v>7.3526788700000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="13">
       <c r="A332" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B332" s="2">
         <v>112.09870001</v>
       </c>
-      <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
-    </row>
-    <row r="333" spans="1:5">
+      <c r="C332" s="2">
+        <v>1.08622068</v>
+      </c>
+      <c r="D332" s="2">
+        <v>11.480082810000001</v>
+      </c>
+      <c r="E332" s="2">
+        <v>8.5187658600000002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="13">
       <c r="A333" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B333" s="2">
         <v>113.06276989</v>
       </c>
-      <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
-    </row>
-    <row r="334" spans="1:5">
+      <c r="C333" s="2">
+        <v>0.86001879000000003</v>
+      </c>
+      <c r="D333" s="2">
+        <v>12.128481539999999</v>
+      </c>
+      <c r="E333" s="2">
+        <v>9.4520476299999991</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="13">
       <c r="A334" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B334" s="2">
         <v>111.9847259</v>
       </c>
-      <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-    </row>
-    <row r="335" spans="1:5">
+      <c r="C334" s="2">
+        <v>-0.95349158000000001</v>
+      </c>
+      <c r="D334" s="2">
+        <v>10.36515253</v>
+      </c>
+      <c r="E334" s="2">
+        <v>8.4084315699999994</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="13">
       <c r="A335" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B335" s="2">
         <v>111.13151259</v>
       </c>
-      <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2"/>
-    </row>
-    <row r="336" spans="1:5">
+      <c r="C335" s="2">
+        <v>-0.76190150000000001</v>
+      </c>
+      <c r="D335" s="2">
+        <v>8.9913986099999992</v>
+      </c>
+      <c r="E335" s="2">
+        <v>7.5824661000000004</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="13">
       <c r="A336" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B336" s="2">
         <v>111.28875462000001</v>
       </c>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
-    </row>
-    <row r="337" spans="1:5">
+      <c r="C336" s="2">
+        <v>0.14149185</v>
+      </c>
+      <c r="D336" s="2">
+        <v>8.2550374899999994</v>
+      </c>
+      <c r="E336" s="2">
+        <v>7.7346865200000003</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="13">
       <c r="A337" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B337" s="2">
         <v>111.43592172</v>
       </c>
-      <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2"/>
-    </row>
-    <row r="338" spans="1:5">
+      <c r="C337" s="2">
+        <v>0.13223897000000001</v>
+      </c>
+      <c r="D337" s="2">
+        <v>7.8771537599999997</v>
+      </c>
+      <c r="E337" s="2">
+        <v>7.8771537599999997</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="13">
       <c r="A338" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B338" s="2">
         <v>111.61473726</v>
       </c>
-      <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
-    </row>
-    <row r="339" spans="1:5">
+      <c r="C338" s="2">
+        <v>0.16046489999999999</v>
+      </c>
+      <c r="D338" s="2">
+        <v>7.6518468300000002</v>
+      </c>
+      <c r="E338" s="2">
+        <v>0.16046489999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="13">
       <c r="A339" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B339" s="2">
         <v>110.66316430000001</v>
       </c>
-      <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
-      <c r="E339" s="2"/>
-    </row>
-    <row r="340" spans="1:5">
+      <c r="C339" s="2">
+        <v>-0.85255135999999998</v>
+      </c>
+      <c r="D339" s="2">
+        <v>5.5798108400000004</v>
+      </c>
+      <c r="E339" s="2">
+        <v>-0.69345451000000002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="13">
       <c r="A340" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B340" s="2">
         <v>110.41034163</v>
       </c>
-      <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
-    </row>
-    <row r="341" spans="1:5">
+      <c r="C340" s="2">
+        <v>-0.22846145000000001</v>
+      </c>
+      <c r="D340" s="2">
+        <v>4.4173967999999997</v>
+      </c>
+      <c r="E340" s="2">
+        <v>-0.92033167999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="13">
       <c r="A341" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B341" s="2">
         <v>110.03083679</v>
       </c>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-      <c r="E341" s="2"/>
-    </row>
-    <row r="342" spans="1:5">
+      <c r="C341" s="2">
+        <v>-0.34372218999999998</v>
+      </c>
+      <c r="D341" s="2">
+        <v>2.4428179999999999</v>
+      </c>
+      <c r="E341" s="2">
+        <v>-1.26089048</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="13">
       <c r="A342" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B342" s="2">
         <v>109.91499051</v>
       </c>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-    </row>
-    <row r="343" spans="1:5">
+      <c r="C342" s="2">
+        <v>-0.10528527999999999</v>
+      </c>
+      <c r="D342" s="2">
+        <v>0.87917926000000002</v>
+      </c>
+      <c r="E342" s="2">
+        <v>-1.36484823</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="13">
       <c r="A343" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B343" s="2">
         <v>109.74253053</v>
       </c>
-      <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-    </row>
-    <row r="344" spans="1:5">
+      <c r="C343" s="2">
+        <v>-0.15690306000000001</v>
+      </c>
+      <c r="D343" s="2">
+        <v>-1.03848075</v>
+      </c>
+      <c r="E343" s="2">
+        <v>-1.5196098</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="13">
       <c r="A344" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B344" s="2">
         <v>109.53713196</v>
       </c>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-    </row>
-    <row r="345" spans="1:5">
+      <c r="C344" s="2">
+        <v>-0.18716405</v>
+      </c>
+      <c r="D344" s="2">
+        <v>-2.2851005899999999</v>
+      </c>
+      <c r="E344" s="2">
+        <v>-1.7039297</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="13">
       <c r="A345" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B345" s="2">
         <v>109.35645599999999</v>
       </c>
-      <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
-    </row>
-    <row r="346" spans="1:5">
+      <c r="C345" s="2">
+        <v>-0.16494494000000001</v>
+      </c>
+      <c r="D345" s="2">
+        <v>-3.2781028600000002</v>
+      </c>
+      <c r="E345" s="2">
+        <v>-1.8660641</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="13">
       <c r="A346" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B346" s="2">
         <v>109.48174312</v>
       </c>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-    </row>
-    <row r="347" spans="1:5">
+      <c r="C346" s="2">
+        <v>0.11456764999999999</v>
+      </c>
+      <c r="D346" s="2">
+        <v>-2.2351108700000002</v>
+      </c>
+      <c r="E346" s="2">
+        <v>-1.75363435</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="13">
       <c r="A347" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B347" s="2">
         <v>109.71020555</v>
       </c>
-      <c r="C347" s="2"/>
-      <c r="D347" s="2"/>
-      <c r="E347" s="2"/>
-    </row>
-    <row r="348" spans="1:5">
+      <c r="C347" s="2">
+        <v>0.20867627999999999</v>
+      </c>
+      <c r="D347" s="2">
+        <v>-1.2789415099999999</v>
+      </c>
+      <c r="E347" s="2">
+        <v>-1.54861749</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="13">
       <c r="A348" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B348" s="2">
         <v>109.45814135000001</v>
       </c>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
-      <c r="E348" s="2"/>
-    </row>
-    <row r="349" spans="1:5">
+      <c r="C348" s="2">
+        <v>-0.22975456</v>
+      </c>
+      <c r="D348" s="2">
+        <v>-1.6449220600000001</v>
+      </c>
+      <c r="E348" s="2">
+        <v>-1.7748140299999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="13">
       <c r="A349" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B349" s="2">
         <v>109.46875206</v>
       </c>
-      <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
-      <c r="E349" s="2"/>
-    </row>
-    <row r="350" spans="1:5">
+      <c r="C349" s="2">
+        <v>9.6938500000000004E-3</v>
+      </c>
+      <c r="D349" s="2">
+        <v>-1.7652922200000001</v>
+      </c>
+      <c r="E349" s="2">
+        <v>-1.76529223</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="13">
       <c r="A350" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B350" s="2">
         <v>109.52906634999999</v>
       </c>
-      <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
-      <c r="E350" s="2"/>
-    </row>
-    <row r="351" spans="1:5">
+      <c r="C350" s="2">
+        <v>5.5097269999999997E-2</v>
+      </c>
+      <c r="D350" s="2">
+        <v>-1.86863398</v>
+      </c>
+      <c r="E350" s="2">
+        <v>5.5097260000000002E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="13">
       <c r="A351" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B351" s="2">
         <v>109.4111146</v>
       </c>
-      <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
-      <c r="E351" s="2"/>
-    </row>
-    <row r="352" spans="1:5">
+      <c r="C351" s="2">
+        <v>-0.10768991</v>
+      </c>
+      <c r="D351" s="2">
+        <v>-1.13140602</v>
+      </c>
+      <c r="E351" s="2">
+        <v>-5.2651969999999999E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="13">
       <c r="A352" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B352" s="2">
         <v>109.10052736</v>
       </c>
-      <c r="C352" s="2"/>
-      <c r="D352" s="2"/>
-      <c r="E352" s="2"/>
-    </row>
-    <row r="353" spans="1:5">
+      <c r="C352" s="2">
+        <v>-0.28387173999999998</v>
+      </c>
+      <c r="D352" s="2">
+        <v>-1.1863148400000001</v>
+      </c>
+      <c r="E352" s="2">
+        <v>-0.33637425999999998</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="13">
       <c r="A353" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B353" s="2">
         <v>109.45778192</v>
       </c>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
-      <c r="E353" s="2"/>
-    </row>
-    <row r="354" spans="1:5">
+      <c r="C353" s="2">
+        <v>0.32745447999999999</v>
+      </c>
+      <c r="D353" s="2">
+        <v>-0.52081297000000004</v>
+      </c>
+      <c r="E353" s="2">
+        <v>-1.0021260000000001E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="13">
       <c r="A354" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B354" s="2">
         <v>109.54703268999999</v>
       </c>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
+      <c r="C354" s="2">
+        <v>8.1538990000000006E-2</v>
+      </c>
+      <c r="D354" s="2">
+        <v>-0.33476581999999999</v>
+      </c>
+      <c r="E354" s="2">
+        <v>7.1509569999999995E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="13">
+      <c r="A355" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355" s="2">
+        <v>109.70548476</v>
+      </c>
+      <c r="C355" s="2">
+        <v>0.14464295999999999</v>
+      </c>
+      <c r="D355" s="2">
+        <v>-3.3756990000000001E-2</v>
+      </c>
+      <c r="E355" s="2">
+        <v>0.21625596</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="13">
+      <c r="A356" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B356" s="2">
+        <v>109.57204643</v>
+      </c>
+      <c r="C356" s="2">
+        <v>-0.12163322999999999</v>
+      </c>
+      <c r="D356" s="2">
+        <v>3.1874550000000001E-2</v>
+      </c>
+      <c r="E356" s="2">
+        <v>9.4359689999999996E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="13">
+      <c r="A357" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B357" s="2">
+        <v>109.69819957</v>
+      </c>
+      <c r="C357" s="2">
+        <v>0.11513259000000001</v>
+      </c>
+      <c r="D357" s="2">
+        <v>0.31250424999999998</v>
+      </c>
+      <c r="E357" s="2">
+        <v>0.20960092</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="13">
+      <c r="A358" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358" s="2">
+        <v>109.33301018</v>
+      </c>
+      <c r="C358" s="2">
+        <v>-0.33290372000000001</v>
+      </c>
+      <c r="D358" s="2">
+        <v>-0.13585182000000001</v>
+      </c>
+      <c r="E358" s="2">
+        <v>-0.12400057</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="13">
+      <c r="A359" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359" s="2">
+        <v>108.84745042</v>
+      </c>
+      <c r="C359" s="2">
+        <v>-0.44411085</v>
+      </c>
+      <c r="D359" s="2">
+        <v>-0.78639460000000005</v>
+      </c>
+      <c r="E359" s="2">
+        <v>-0.56756072000000002</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="13">
+      <c r="A360" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360" s="2">
+        <v>109.35763409</v>
+      </c>
+      <c r="C360" s="2">
+        <v>0.46871439999999998</v>
+      </c>
+      <c r="D360" s="2">
+        <v>-9.1822550000000003E-2</v>
+      </c>
+      <c r="E360" s="2">
+        <v>-0.10150656</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="13">
+      <c r="A361" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361" s="2">
+        <v>110.39017167</v>
+      </c>
+      <c r="C361" s="2">
+        <v>0.94418427000000005</v>
+      </c>
+      <c r="D361" s="2">
+        <v>0.84171929999999995</v>
+      </c>
+      <c r="E361" s="2">
+        <v>0.84171929999999995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0" footer="0"/>
@@ -5881,24 +8154,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32CAA86-7B18-4A6E-9F7D-7DB4B25692CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D6AB1B-9AC1-5147-B4B8-5FFB06CCE2AC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCBA272-C517-4E9D-A0CF-999EFB831AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57786DE7-4A3C-7845-B3D5-F94172D3FB67}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
